--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="validation" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -28,344 +28,20 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -373,251 +49,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -627,56 +61,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1031,6 +417,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -8381,10 +7768,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8459,625 +7846,236 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000692</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">惠天热电
-</t>
+          <t>广州浪奇(涨幅:4.8)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.91</v>
+        <v>1.47</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.88</v>
+        <v>5.08</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>63886.64</v>
+        <v>92583.98</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>121816.46</v>
+        <v>216091.91</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>145628.78</v>
+        <v>347451.67</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1.2</v>
+        <v>0.59</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.29</v>
+        <v>1.37</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.73</v>
+        <v>2.2</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>002173</t>
+          <t>000712</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">创新医疗
-</t>
+          <t>锦龙股份(涨幅:5.77)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.5</v>
+        <v>4.56</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.95</v>
+        <v>5.77</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>106503</v>
+        <v>49170.19</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>170325</v>
+        <v>245954.95</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>388456.16</v>
+        <v>260886.28</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2.84</v>
+        <v>0.55</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>10.35</v>
+        <v>2.92</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002452</t>
+          <t>300292</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">长高电新
-</t>
+          <t>吴通控股(涨幅:2.55)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.58</v>
+        <v>1.79</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.31</v>
+        <v>3.52</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>71755.28</v>
+        <v>351352</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>150514.59</v>
+        <v>807057.1899999999</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>241879</v>
+        <v>863387.16</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2.94</v>
+        <v>7.23</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>4.72</v>
+        <v>7.73</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.08</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>002547</t>
+          <t>300447</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">春兴精工
-</t>
+          <t>全信股份(涨幅:4.07)</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.19</v>
+        <v>2.42</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.06</v>
+        <v>4.18</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>246151</v>
+        <v>32135.3</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>761627.8100000001</v>
+        <v>112361.13</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>914648.9399999999</v>
+        <v>123070.71</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>6.9</v>
+        <v>5.62</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>8.279999999999999</v>
+        <v>6.16</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.57</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>002774</t>
+          <t>300898</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">快意电梯
-</t>
+          <t>熊猫乳品(涨幅:4.45)</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.23</v>
+        <v>2.17</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6.74</v>
+        <v>2.25</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>37820</v>
+        <v>33969.95</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>80871.92</v>
+        <v>52111.08</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>113821.37</v>
+        <v>54541.54</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.34</v>
+        <v>6.59</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>2.87</v>
+        <v>10.11</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>4.04</v>
+        <v>10.58</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>002808</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">恒久科技
-</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>700098.5</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>813152.3100000001</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>992290.3100000001</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>47.39</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>57.83</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>300128</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">锦富技术
-</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>185867.7</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>319713.12</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>502082.44</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>300235</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">方直科技
-</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>131640.02</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>205310.56</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>215091.48</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>300340</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">科恒股份
-</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>21137</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>45399.2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>162849.55</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>-0.84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>300371</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">汇中股份
-</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>14418.4</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>18609.4</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>19129</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>300492</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">华图山鼎
-</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>10497.5</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>11013.7</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>21425.03</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>300540</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">蜀道装备
-</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>7241</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>22973.67</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>31635</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>300609</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">汇纳科技
-</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0.65</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>36840.66</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>41931.15</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>49568</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -427,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L14"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7756,6 +7756,2074 @@
         <v>0.21</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>000659</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>珠海中富</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>84947.5</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>430220.38</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>481944.41</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>000816</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>智慧农业</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>984535.38</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>1015471.81</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>1046019.25</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>000830</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>71816.24000000001</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>285434.19</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>292616.47</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K155" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L155" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" s="0" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>002101</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>广东鸿图</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>241744.91</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>502237.59</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>570350.5</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>002215</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>诺普信</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>72179.05</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>214660</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>572573.75</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>太阳电缆</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>39656.83</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>128504.2</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>253183.12</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M158" s="0" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>002483</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>润邦股份</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>226922.38</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>336353.19</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>676834.62</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="M159" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>002645</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>华宏科技</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>67375.55</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>134624.84</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>169197.7</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K160" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M160" s="0" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>82723</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>251731</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>476505</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M161" s="0" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>002734</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>利民股份</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>17584.43</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>53500.86</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>238427.91</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L162" s="0" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="M162" s="0" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>300235</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>方直科技</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>205310.56</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>215091.48</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>219790.36</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="L163" s="0" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="M163" s="0" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>300320</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>海达股份</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>88370.25</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>220104.28</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>223097.28</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L164" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M164" s="0" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>39700.92</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>53178.12</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>59190.87</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L165" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M165" s="0" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>300409</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>道氏技术</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>68552.42999999999</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>181145.48</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>196269.44</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K166" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L166" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M166" s="0" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>300722</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>新余国科</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>14404.82</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>79408.25999999999</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>84648.36</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M167" s="0" t="n">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>300738</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>奥飞数据</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>691648.9399999999</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>799849.12</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>913725.25</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K168" s="0" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="M168" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>300926</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>博俊科技</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>38254.65</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>40588.2</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>48171.67</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K169" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="M169" s="0" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>301046</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>能辉科技</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>43839.98</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>81278.86</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>102091.69</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K170" s="0" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M170" s="0" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>301326</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>捷邦科技</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>9907.67</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>23560.27</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>32446.42</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K171" s="0" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="L171" s="0" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="M171" s="0" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>301366</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>一博科技</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>7617.25</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>18465.54</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>28669.81</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="M172" s="0" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>301398</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>星源卓镁</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>13655.73</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>23136.39</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>26658.07</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K173" s="0" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="M173" s="0" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>216997.84</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M174" s="0" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>000659</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>珠海中富</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>84947.5</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>430220.38</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>481944.41</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M175" s="0" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>000816</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>智慧农业</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>984535.38</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>1015471.81</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>1046019.25</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="L176" s="0" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="M176" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>000830</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>71816.24000000001</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>285434.19</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>292616.47</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" s="0" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>002101</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>广东鸿图</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>241744.91</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>502237.59</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>570350.5</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L178" s="0" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="M178" s="0" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>002215</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>诺普信</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>72179.05</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>214660</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>572573.75</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M179" s="0" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>太阳电缆</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>39656.83</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>128504.2</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>253183.12</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M180" s="0" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>002483</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>润邦股份</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>226922.38</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>336353.19</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>676834.62</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K181" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L181" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="M181" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>002645</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>华宏科技</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>67375.55</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>134624.84</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>169197.7</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K182" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M182" s="0" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>82723</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>251731</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>476505</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K183" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L183" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M183" s="0" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>002734</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>利民股份</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>17584.43</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>53500.86</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>238427.91</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K184" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="M184" s="0" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>300235</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>方直科技</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>205310.56</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>215091.48</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>219790.36</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="M185" s="0" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>300320</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>海达股份</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>88370.25</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>220104.28</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>223097.28</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K186" s="0" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M186" s="0" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>39700.92</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>53178.12</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>59190.87</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L187" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M187" s="0" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>300409</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>道氏技术</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>68552.42999999999</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>181145.48</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>196269.44</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L188" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M188" s="0" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>300722</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>新余国科</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>14404.82</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>79408.25999999999</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>84648.36</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>300738</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>奥飞数据</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>691648.9399999999</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>799849.12</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>913725.25</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="L190" s="0" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>300926</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>博俊科技</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>38254.65</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>40588.2</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>48171.67</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K191" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L191" s="0" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="M191" s="0" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>301046</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>能辉科技</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>43839.98</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>81278.86</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>102091.69</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="L192" s="0" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M192" s="0" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>301326</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>捷邦科技</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>9907.67</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>23560.27</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>32446.42</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="M193" s="0" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>301366</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>一博科技</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>7617.25</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>18465.54</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>28669.81</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K194" s="0" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="M194" s="0" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>301398</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>星源卓镁</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>13655.73</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>23136.39</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>26658.07</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="M195" s="0" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>216997.84</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M196" s="0" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7768,10 +9836,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7846,236 +9914,1129 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>广州浪奇(涨幅:4.8)</t>
+          <t>深振业A</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.47</v>
+        <v>0.92</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5.08</v>
+        <v>4.83</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>92583.98</v>
+        <v>457298.25</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>216091.91</v>
+        <v>534171.38</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>347451.67</v>
+        <v>969340.5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.59</v>
+        <v>3.39</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.37</v>
+        <v>3.96</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.2</v>
+        <v>7.18</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.33</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000712</t>
+          <t>000428</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>锦龙股份(涨幅:5.77)</t>
+          <t>华天酒店</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>4.56</v>
+        <v>2.26</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5.77</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>49170.19</v>
+        <v>221428.55</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>245954.95</v>
+        <v>325743.38</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>260886.28</v>
+        <v>677770.38</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.55</v>
+        <v>2.17</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2.92</v>
+        <v>6.65</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.42</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>300292</t>
+          <t>000860</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>吴通控股(涨幅:2.55)</t>
+          <t>顺鑫农业</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.79</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.52</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>351352</v>
+        <v>56799.94</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>807057.1899999999</v>
+        <v>154823.59</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>863387.16</v>
+        <v>162058.73</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3.15</v>
+        <v>0.77</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>7.23</v>
+        <v>2.09</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>7.73</v>
+        <v>2.18</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1.63</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>300447</t>
+          <t>002215</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>全信股份(涨幅:4.07)</t>
+          <t>诺普信</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.08</v>
+        <v>3.04</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4.18</v>
+        <v>5.41</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>32135.3</v>
+        <v>214660</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>112361.13</v>
+        <v>572573.75</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>123070.71</v>
+        <v>734091.38</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1.61</v>
+        <v>2.71</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>5.62</v>
+        <v>7.24</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>6.16</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>300898</t>
+          <t>002930</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>熊猫乳品(涨幅:4.45)</t>
+          <t>宏川智慧</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.17</v>
+        <v>1.16</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.25</v>
+        <v>4.74</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4.1</v>
+        <v>2.01</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>33969.95</v>
+        <v>19284.34</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>52111.08</v>
+        <v>33423.22</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>54541.54</v>
+        <v>34318.6</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>6.59</v>
+        <v>0.45</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>10.11</v>
+        <v>0.78</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>10.58</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>300319</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>麦捷科技</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>257596.64</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>292446.09</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>314259.75</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>53178.12</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>59190.87</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>65263.89</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>300487</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>蓝晓科技</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>20630.98</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>25063.58</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>48300.95</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>300501</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>海顺新材</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>90330.57000000001</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>152075.2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>275810.28</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>300628</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>亿联网络</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>25574.05</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>30819.24</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>43841.65</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>300668</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>杰恩设计</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>10123</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>21067</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>23808</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>300684</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>中石科技</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>24332</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>32612.1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>33309.48</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>300727</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>润禾材料</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>24690.31</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>62581.02</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>73060.59</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>300859</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>西域旅游</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>42750.98</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>44292</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>79113</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>300932</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>三友联众</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>18639.65</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>19413.65</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>36220.97</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>301073</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>君亭酒店</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>23888.3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>24103.13</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>42628.92</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>301106</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>骏成科技</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>5014</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>5804.08</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>6574</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>600258</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>首旅酒店</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>119346.81</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>149542.66</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>221607.31</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>600452</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>涪陵电力</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>60696.51</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>71232.24000000001</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>82032.38</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>27903.51</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>64939.03</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>65577.11</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>600754</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>锦江酒店</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>44903.06</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>89533.60000000001</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>127358.65</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>600966</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>博汇纸业</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>91393.92999999999</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>164466.38</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>233805.69</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>571080.25</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>600996</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>贵广网络</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>296540.47</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>382077.5</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>480512.84</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>-1.22</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -429,7 +429,7 @@
   </sheetPr>
   <dimension ref="A1:M196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
@@ -9836,7 +9836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M25"/>
@@ -9914,985 +9914,985 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>000157</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>深振业A</t>
+          <t>中联重科(涨幅:6.77)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.92</v>
+        <v>1.75</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.19</v>
+        <v>3.94</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4.83</v>
+        <v>6.6</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>457298.25</v>
+        <v>313720.31</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>534171.38</v>
+        <v>1410597.12</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>969340.5</v>
+        <v>1845612.78</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3.39</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3.96</v>
+        <v>2</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>7.18</v>
+        <v>2.62</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>-1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000428</t>
+          <t>000516</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>华天酒店</t>
+          <t>国际医学(涨幅:3.55)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.14</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.26</v>
+        <v>3.5</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>221428.55</v>
+        <v>236133.48</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>325743.38</v>
+        <v>537999.75</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>677770.38</v>
+        <v>551036.61</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2.17</v>
+        <v>1.24</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>6.65</v>
+        <v>2.9</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>-0.32</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>000860</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>顺鑫农业</t>
+          <t>广州浪奇(涨幅:7.63)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.64</v>
+        <v>7.34</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>56799.94</v>
+        <v>92583.98</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>154823.59</v>
+        <v>216091.91</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>162058.73</v>
+        <v>584373.29</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2.09</v>
+        <v>1.37</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>-0.29</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>002215</t>
+          <t>000610</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>诺普信</t>
+          <t>西安旅游(涨幅:6.64)</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5.41</v>
+        <v>6.77</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>214660</v>
+        <v>136109.38</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>572573.75</v>
+        <v>280849.84</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>734091.38</v>
+        <v>376076.43</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2.71</v>
+        <v>5.78</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>7.24</v>
+        <v>11.93</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>9.279999999999999</v>
+        <v>15.98</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2.07</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>002930</t>
+          <t>000799</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>宏川智慧</t>
+          <t>酒鬼酒(涨幅:5.47)</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.16</v>
+        <v>2.52</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4.74</v>
+        <v>2.18</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.01</v>
+        <v>5.47</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>19284.34</v>
+        <v>71510.81</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>33423.22</v>
+        <v>110325.73</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>34318.6</v>
+        <v>165830.68</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.45</v>
+        <v>2.2</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.78</v>
+        <v>3.4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.8</v>
+        <v>5.11</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.4</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>300319</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>麦捷科技</t>
+          <t>东莞控股(涨幅:6.4)</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.44</v>
+        <v>4.13</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.29</v>
+        <v>6.4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>257596.64</v>
+        <v>25018.74</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>292446.09</v>
+        <v>159069.88</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>314259.75</v>
+        <v>206500.57</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3.14</v>
+        <v>0.24</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3.57</v>
+        <v>1.53</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3.84</v>
+        <v>1.99</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>-1.07</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>300347</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>泰格医药</t>
+          <t>华铁股份(涨幅:5.5)</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.13</v>
+        <v>2.84</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.54</v>
+        <v>5.03</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>53178.12</v>
+        <v>224546.91</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>59190.87</v>
+        <v>819914.5</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>65263.89</v>
+        <v>844716.65</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1.05</v>
+        <v>5.14</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.15</v>
+        <v>5.3</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.29</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>300487</t>
+          <t>002205</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>蓝晓科技</t>
+          <t>国统股份(涨幅:2.68)</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.02</v>
+        <v>3.12</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5.79</v>
+        <v>2.68</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>20630.98</v>
+        <v>48454.2</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>25063.58</v>
+        <v>90049.22</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>48300.95</v>
+        <v>114232.6</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1.03</v>
+        <v>2.61</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.25</v>
+        <v>4.85</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>2.4</v>
+        <v>6.15</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.31</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>300501</t>
+          <t>002695</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>海顺新材</t>
+          <t>煌上煌(涨幅:3.66)</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>5.08</v>
+        <v>2.72</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>90330.57000000001</v>
+        <v>46334</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>152075.2</v>
+        <v>106263.02</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>275810.28</v>
+        <v>149277.29</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>7.23</v>
+        <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>12.17</v>
+        <v>2.29</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>22.07</v>
+        <v>3.22</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>300628</t>
+          <t>002732</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>亿联网络</t>
+          <t>燕塘乳业(涨幅:4.31)</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.02</v>
+        <v>0.52</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1.6</v>
+        <v>4.31</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>25574.05</v>
+        <v>15235</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>30819.24</v>
+        <v>34403.38</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>43841.65</v>
+        <v>62376.4</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.85</v>
+        <v>3.99</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>-0.37</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>300668</t>
+          <t>002852</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>杰恩设计</t>
+          <t>道道全(涨幅:2.16)</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4.7</v>
+        <v>2.04</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>10123</v>
+        <v>36222</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>21067</v>
+        <v>71594.59</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>23808</v>
+        <v>82497</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>3.02</v>
+        <v>2.82</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.27</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>300684</t>
+          <t>002859</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>中石科技</t>
+          <t>洁美科技(涨幅:3.77)</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.12</v>
+        <v>2.62</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.29</v>
+        <v>3.65</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>24332</v>
+        <v>28831.52</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>32612.1</v>
+        <v>49227.07</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>33309.48</v>
+        <v>69123.48</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1.34</v>
+        <v>0.72</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>-0.33</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>300727</t>
+          <t>300094</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>润禾材料</t>
+          <t>国联水产(涨幅:3.31)</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.78</v>
+        <v>0.34</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>5.34</v>
+        <v>2.89</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4.33</v>
+        <v>3.47</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>24690.31</v>
+        <v>384796.91</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>62581.02</v>
+        <v>765439.1899999999</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>73060.59</v>
+        <v>829016.25</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>2.18</v>
+        <v>4.35</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>5.53</v>
+        <v>8.66</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>6.45</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>300859</t>
+          <t>300106</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>西域旅游</t>
+          <t>西部牧业(涨幅:1.43)</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3.06</v>
+        <v>1.43</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>42750.98</v>
+        <v>29927.02</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>44292</v>
+        <v>67259.56</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>79113</v>
+        <v>73026.44</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>4.47</v>
+        <v>1.42</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>4.63</v>
+        <v>3.18</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>8.27</v>
+        <v>3.45</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1.1</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>300932</t>
+          <t>300292</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>三友联众</t>
+          <t>吴通控股(涨幅:1.42)</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.24</v>
+        <v>1.79</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2.05</v>
+        <v>3.52</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>18639.65</v>
+        <v>351352</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>19413.65</v>
+        <v>807057.1899999999</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>36220.97</v>
+        <v>1084183.16</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>2.06</v>
+        <v>3.15</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>2.14</v>
+        <v>7.23</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>3.99</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>301073</t>
+          <t>300447</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>君亭酒店</t>
+          <t>全信股份(涨幅:3.45)</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3.06</v>
+        <v>2.42</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3.24</v>
+        <v>2.08</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5.36</v>
+        <v>3.45</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>23888.3</v>
+        <v>32135.3</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>24103.13</v>
+        <v>112361.13</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>42628.92</v>
+        <v>176793.63</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>4.98</v>
+        <v>1.61</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>5.03</v>
+        <v>5.62</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>8.890000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>301106</t>
+          <t>300506</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>骏成科技</t>
+          <t>名家汇(涨幅:3.73)</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.42</v>
+        <v>2.84</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>2.21</v>
+        <v>3.07</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.97</v>
+        <v>3.73</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>5014</v>
+        <v>83527.10000000001</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>5804.08</v>
+        <v>109245.11</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6574</v>
+        <v>132442.87</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>2.41</v>
+        <v>1.46</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>2.78</v>
+        <v>1.91</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>600258</t>
+          <t>300539</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>首旅酒店</t>
+          <t>横河精密(涨幅:4.8)</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.22</v>
+        <v>1.93</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4.94</v>
+        <v>4.8</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>119346.81</v>
+        <v>76836.56</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>149542.66</v>
+        <v>87213.75999999999</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>221607.31</v>
+        <v>91339.78999999999</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1.4</v>
+        <v>5.11</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>2.07</v>
+        <v>5.35</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>-0.8</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>600452</t>
+          <t>300740</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>涪陵电力</t>
+          <t>水羊股份(涨幅:2.8)</t>
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.78</v>
+        <v>1.19</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.32</v>
+        <v>2.8</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>60696.51</v>
+        <v>59985.79</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>71232.24000000001</v>
+        <v>110485.61</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>82032.38</v>
+        <v>111293.57</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.66</v>
+        <v>1.69</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.78</v>
+        <v>3.11</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.9</v>
+        <v>3.13</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>600702</t>
+          <t>300767</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>舍得酒业</t>
+          <t>震安科技(涨幅:1.42)</t>
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.16</v>
+        <v>2.82</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>3.82</v>
+        <v>2.93</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2.95</v>
+        <v>1.42</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>27903.51</v>
+        <v>18792.88</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>64939.03</v>
+        <v>25898.22</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>65577.11</v>
+        <v>30638.56</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>-0.53</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>600754</t>
+          <t>300783</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>锦江酒店</t>
+          <t>三只松鼠(涨幅:0.18)</t>
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4.49</v>
+        <v>2.24</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6.17</v>
+        <v>0.23</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>44903.06</v>
+        <v>53442.86</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>89533.60000000001</v>
+        <v>77601.39</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>127358.65</v>
+        <v>78333.84</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.49</v>
+        <v>1.9</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.98</v>
+        <v>2.76</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1.39</v>
+        <v>2.79</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0.41</v>
@@ -10901,142 +10901,753 @@
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>600966</t>
+          <t>300791</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>博汇纸业</t>
+          <t>仙乐健康(涨幅:5.09)</t>
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.26</v>
+        <v>1.85</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2.92</v>
+        <v>2.38</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4.2</v>
+        <v>5.09</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>91393.92999999999</v>
+        <v>10391.62</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>164466.38</v>
+        <v>12408</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>233805.69</v>
+        <v>19151.85</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.68</v>
+        <v>1.55</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>1.75</v>
+        <v>2.86</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>-0.49</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>600989</t>
+          <t>300795</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>宝丰能源</t>
+          <t>米奥会展(涨幅:7.48)</t>
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2.13</v>
+        <v>0.89</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2.5</v>
+        <v>7.48</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>240006.97</v>
+        <v>4886.93</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>369245.22</v>
+        <v>10181</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>571080.25</v>
+        <v>13085.83</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.33</v>
+        <v>0.98</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.5</v>
+        <v>2.04</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.78</v>
+        <v>2.62</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.61</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>600996</t>
+          <t>300825</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>贵广网络</t>
+          <t>阿尔特(涨幅:5.06)</t>
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.28</v>
+        <v>0.87</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>43756.33</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>127205.47</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>160009.64</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>300898</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>熊猫乳品(涨幅:5.92)</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>33969.95</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>52111.08</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>100041.84</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>301002</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>崧盛股份(涨幅:5.56)</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>14132.95</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>35560.86</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>46555.48</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>301079</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>邵阳液压(涨幅:4.34)</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7654</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>15644.59</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>31497.15</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>301116</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>益客食品(涨幅:2.75)</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>58633.9</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>96690.78</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>129776.55</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>新特电气(涨幅:3.02)</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>88145.05</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>144077.88</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>146012.25</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>301235</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>华康医疗(涨幅:3.73)</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>14323</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>19525</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>23660.79</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>600059</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>古越龙山(涨幅:4.63)</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>270659.03</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>350372.66</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>442235.59</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>600163</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>中闽能源(涨幅:0.35)</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>136353.41</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>377873.22</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>391156.8</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L33" s="0" t="n">
         <v>3.38</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>296540.47</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>382077.5</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>480512.84</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>-1.22</v>
+      <c r="M33" s="0" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>600300</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>维维股份(涨幅:1.75)</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>129777</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>252767.2</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>270783.68</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>600416</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>湘电股份(涨幅:1.49)</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>147424.66</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>247700.23</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>264227.11</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>山东药玻(涨幅:2.9)</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>45682.47</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>164844.42</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>185569.03</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>600779</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>水井坊(涨幅:3.89)</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>68204.23</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>108742.44</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>114537.57</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>600826</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>兰生股份(涨幅:1.42)</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>31142</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>72819.36</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>74342.59</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -11051,14 +11662,1143 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>301073</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>君亭酒店</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>23888.3</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>24103.13</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>42628.92</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>002215</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>诺普信</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>214660</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>572573.75</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>734091.38</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>300501</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>海顺新材</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>90330.57000000001</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>152075.2</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>275810.28</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>53178.12</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>59190.87</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>65263.89</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>300859</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>西域旅游</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>42750.98</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>44292</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>79113</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>571080.25</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>600754</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>锦江酒店</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>44903.06</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>89533.60000000001</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>127358.65</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>002930</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>宏川智慧</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>19284.34</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>33423.22</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>34318.6</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>300487</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>蓝晓科技</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>20630.98</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>25063.58</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>48300.95</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>300668</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>杰恩设计</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10123</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>21067</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>23808</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>600452</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>涪陵电力</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>60696.51</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>71232.24000000001</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>82032.38</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>300932</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>三友联众</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>18639.65</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>19413.65</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>36220.97</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>301106</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>骏成科技</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>5014</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>5804.08</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6574</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>000860</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>顺鑫农业</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>56799.94</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>154823.59</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>162058.73</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>000428</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>华天酒店</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>221428.55</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>325743.38</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>677770.38</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>300684</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>中石科技</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>24332</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>32612.1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>33309.48</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>300628</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>亿联网络</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>25574.05</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>30819.24</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>43841.65</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>300727</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>润禾材料</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>24690.31</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>62581.02</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>73060.59</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>600966</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>博汇纸业</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>91393.92999999999</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>164466.38</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>233805.69</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>27903.51</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>64939.03</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>65577.11</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>600258</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>首旅酒店</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>119346.81</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>149542.66</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>221607.31</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>300319</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>麦捷科技</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>257596.64</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>292446.09</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>314259.75</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>600996</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>贵广网络</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>296540.47</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>382077.5</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>480512.84</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>深振业A</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>457298.25</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>534171.38</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>969340.5</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -427,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9822,6 +9822,1134 @@
       </c>
       <c r="M196" s="0" t="n">
         <v>5.21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>深振业A</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>457298.25</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>534171.38</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>969340.5</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="M197" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>000428</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>华天酒店</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>221428.55</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>325743.38</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>677770.38</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M198" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>000860</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>顺鑫农业</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>56799.94</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>154823.59</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>162058.73</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K199" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L199" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M199" s="0" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>002215</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>诺普信</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>214660</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>572573.75</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>734091.38</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K200" s="0" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="L200" s="0" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M200" s="0" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>002930</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>宏川智慧</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>19284.34</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>33423.22</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>34318.6</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>300319</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>麦捷科技</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>257596.64</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>292446.09</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>314259.75</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K202" s="0" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="L202" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M202" s="0" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>300347</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>泰格医药</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>53178.12</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>59190.87</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>65263.89</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K203" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L203" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M203" s="0" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>300487</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>蓝晓科技</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>20630.98</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>25063.58</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>48300.95</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K204" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L204" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M204" s="0" t="n">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>300501</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>海顺新材</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>90330.57000000001</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>152075.2</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>275810.28</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K205" s="0" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>300628</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>亿联网络</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>25574.05</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>30819.24</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>43841.65</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K206" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>300668</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>杰恩设计</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>10123</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>21067</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>23808</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K207" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>300684</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>中石科技</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>24332</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>32612.1</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>33309.48</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K208" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>300727</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>润禾材料</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>24690.31</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>62581.02</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>73060.59</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K209" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="L209" s="0" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M209" s="0" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>300859</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>西域旅游</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>42750.98</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>44292</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>79113</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K210" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L210" s="0" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="M210" s="0" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>300932</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>三友联众</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>18639.65</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>19413.65</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>36220.97</v>
+      </c>
+      <c r="J211" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K211" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L211" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M211" s="0" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>301073</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>君亭酒店</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>23888.3</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>24103.13</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <v>42628.92</v>
+      </c>
+      <c r="J212" s="0" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K212" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="L212" s="0" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M212" s="0" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>301106</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>骏成科技</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>5014</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>5804.08</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>6574</v>
+      </c>
+      <c r="J213" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K213" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L213" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M213" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>600258</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>首旅酒店</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>119346.81</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>149542.66</v>
+      </c>
+      <c r="I214" s="0" t="n">
+        <v>221607.31</v>
+      </c>
+      <c r="J214" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K214" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L214" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M214" s="0" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>600452</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>涪陵电力</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>60696.51</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>71232.24000000001</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>82032.38</v>
+      </c>
+      <c r="J215" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K215" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L215" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M215" s="0" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>27903.51</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>64939.03</v>
+      </c>
+      <c r="I216" s="0" t="n">
+        <v>65577.11</v>
+      </c>
+      <c r="J216" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K216" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L216" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M216" s="0" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>600754</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>锦江酒店</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>44903.06</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>89533.60000000001</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>127358.65</v>
+      </c>
+      <c r="J217" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K217" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L217" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M217" s="0" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>600966</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>博汇纸业</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>91393.92999999999</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>164466.38</v>
+      </c>
+      <c r="I218" s="0" t="n">
+        <v>233805.69</v>
+      </c>
+      <c r="J218" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K218" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L218" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M218" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>571080.25</v>
+      </c>
+      <c r="J219" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K219" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L219" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M219" s="0" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>600996</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>贵广网络</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>296540.47</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>382077.5</v>
+      </c>
+      <c r="I220" s="0" t="n">
+        <v>480512.84</v>
+      </c>
+      <c r="J220" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K220" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L220" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M220" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9955,7 +11083,7 @@
         <v>2.62</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.5</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="3">
@@ -10002,7 +11130,7 @@
         <v>2.9</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -10049,7 +11177,7 @@
         <v>3.7</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="5">
@@ -10096,7 +11224,7 @@
         <v>15.98</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>-0.82</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="6">
@@ -10143,7 +11271,7 @@
         <v>5.11</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -10190,7 +11318,7 @@
         <v>1.99</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -10237,7 +11365,7 @@
         <v>5.3</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9">
@@ -10284,7 +11412,7 @@
         <v>6.15</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>-0.52</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="10">
@@ -10331,7 +11459,7 @@
         <v>3.22</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11">
@@ -10378,7 +11506,7 @@
         <v>3.99</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="12">
@@ -10425,7 +11553,7 @@
         <v>2.82</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13">
@@ -10472,7 +11600,7 @@
         <v>1.73</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
@@ -10566,7 +11694,7 @@
         <v>3.45</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
@@ -10613,7 +11741,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="17">
@@ -10660,7 +11788,7 @@
         <v>8.84</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -10707,7 +11835,7 @@
         <v>2.32</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="19">
@@ -10754,7 +11882,7 @@
         <v>5.35</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.61</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
@@ -10801,7 +11929,7 @@
         <v>3.13</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
@@ -10848,7 +11976,7 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="22">
@@ -10895,7 +12023,7 @@
         <v>2.79</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
@@ -10942,7 +12070,7 @@
         <v>2.86</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1.13</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24">
@@ -10989,7 +12117,7 @@
         <v>2.62</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>-0.12</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="25">
@@ -11036,7 +12164,7 @@
         <v>3.9</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="26">
@@ -11083,7 +12211,7 @@
         <v>19.41</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>2.55</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="27">
@@ -11130,7 +12258,7 @@
         <v>8.23</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>-0.22</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="28">
@@ -11177,7 +12305,7 @@
         <v>7.01</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="29">
@@ -11224,7 +12352,7 @@
         <v>11.14</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="30">
@@ -11271,7 +12399,7 @@
         <v>25.8</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>-3.24</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="31">
@@ -11318,7 +12446,7 @@
         <v>4.71</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>-0.57</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="32">
@@ -11365,7 +12493,7 @@
         <v>4.85</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="33">
@@ -11412,7 +12540,7 @@
         <v>3.38</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="34">
@@ -11459,7 +12587,7 @@
         <v>1.67</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="35">
@@ -11506,7 +12634,7 @@
         <v>2.79</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="36">
@@ -11553,7 +12681,7 @@
         <v>3.12</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="37">
@@ -11600,7 +12728,7 @@
         <v>2.35</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>1.12</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="38">
@@ -11647,7 +12775,7 @@
         <v>1.78</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -11664,7 +12792,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -429,7 +429,7 @@
   </sheetPr>
   <dimension ref="A1:M220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
@@ -10964,10 +10964,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11042,1740 +11042,659 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000157</t>
+          <t>002562</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>中联重科(涨幅:6.77)</t>
+          <t>兄弟科技(涨幅:7.31)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.75</v>
+        <v>0.57</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>6.6</v>
+        <v>7.31</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>313720.31</v>
+        <v>150860.41</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1410597.12</v>
+        <v>457370.81</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1845612.78</v>
+        <v>1129094.17</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.44</v>
+        <v>2.16</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2</v>
+        <v>6.54</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.62</v>
+        <v>16.15</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.89</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000516</t>
+          <t>002596</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>国际医学(涨幅:3.55)</t>
+          <t>海南瑞泽(涨幅:1.97)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.7</v>
+        <v>1.17</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3.46</v>
+        <v>1.97</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>236133.48</v>
+        <v>252728</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>537999.75</v>
+        <v>338594.09</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>551036.61</v>
+        <v>533087.03</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1.24</v>
+        <v>2.43</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.83</v>
+        <v>3.25</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2.9</v>
+        <v>5.12</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.58</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>广州浪奇(涨幅:7.63)</t>
+          <t>瀛通通讯(涨幅:1.69)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.47</v>
+        <v>0.66</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7.34</v>
+        <v>1.69</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>92583.98</v>
+        <v>35339.9</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>216091.91</v>
+        <v>36915.8</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>584373.29</v>
+        <v>112777.6</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.59</v>
+        <v>3.26</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1.37</v>
+        <v>3.41</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3.7</v>
+        <v>10.42</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>-0.29</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>000610</t>
+          <t>300084</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>西安旅游(涨幅:6.64)</t>
+          <t>海默科技(涨幅:2.41)</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.28</v>
+        <v>2.71</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.22</v>
+        <v>2.64</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6.77</v>
+        <v>2.41</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>136109.38</v>
+        <v>190141.98</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>280849.84</v>
+        <v>221968.56</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>376076.43</v>
+        <v>263691.7</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>11.93</v>
+        <v>6.73</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>15.98</v>
+        <v>8</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>-0.46</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>000799</t>
+          <t>300401</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>酒鬼酒(涨幅:5.47)</t>
+          <t>花园生物(涨幅:2.58)</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.52</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.18</v>
+        <v>3.27</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5.47</v>
+        <v>2.58</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>71510.81</v>
+        <v>89370.41</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>110325.73</v>
+        <v>182564.56</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>165830.68</v>
+        <v>212439.42</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>5.11</v>
+        <v>3.92</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.27</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>300500</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>东莞控股(涨幅:6.4)</t>
+          <t>启迪设计(涨幅:1.82)</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6.4</v>
+        <v>1.82</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>25018.74</v>
+        <v>47843</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>159069.88</v>
+        <v>81297.39999999999</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>206500.57</v>
+        <v>99606.16</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.24</v>
+        <v>2.91</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.53</v>
+        <v>4.95</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1.99</v>
+        <v>6.06</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.22</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>300518</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>华铁股份(涨幅:5.5)</t>
+          <t>盛讯达(涨幅:4.13)</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.84</v>
+        <v>0.47</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.03</v>
+        <v>3.02</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5.5</v>
+        <v>4.13</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>224546.91</v>
+        <v>20629.84</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>819914.5</v>
+        <v>22181.42</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>844716.65</v>
+        <v>26749.4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>5.14</v>
+        <v>1.62</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>5.3</v>
+        <v>1.95</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3.35</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>002205</t>
+          <t>300616</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>国统股份(涨幅:2.68)</t>
+          <t>尚品宅配(涨幅:3.72)</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3.12</v>
+        <v>4.76</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.68</v>
+        <v>3.72</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>48454.2</v>
+        <v>49096.4</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>90049.22</v>
+        <v>76552.66</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>114232.6</v>
+        <v>82245.99000000001</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>2.61</v>
+        <v>3.77</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>4.85</v>
+        <v>5.88</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>6.15</v>
+        <v>6.32</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>-0.39</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>002695</t>
+          <t>300915</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>煌上煌(涨幅:3.66)</t>
+          <t>海融科技(涨幅:2.62)</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.66</v>
+        <v>2.62</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>46334</v>
+        <v>4518</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>106263.02</v>
+        <v>9006.5</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>149277.29</v>
+        <v>13317.88</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>2.29</v>
+        <v>3.63</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3.22</v>
+        <v>5.37</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.85</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>002732</t>
+          <t>301038</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>燕塘乳业(涨幅:4.31)</t>
+          <t>深水规院(涨幅:0.98)</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4.31</v>
+        <v>0.98</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>15235</v>
+        <v>8593.68</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>34403.38</v>
+        <v>19758.77</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>62376.4</v>
+        <v>27902.38</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>2.2</v>
+        <v>4.61</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3.99</v>
+        <v>6.51</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>002852</t>
+          <t>301228</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>道道全(涨幅:2.16)</t>
+          <t>实朴检测(涨幅:3.78)</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.66</v>
+        <v>0.36</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2.04</v>
+        <v>5.78</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.16</v>
+        <v>3.78</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>36222</v>
+        <v>6581.43</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>71594.59</v>
+        <v>41210.46</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>82497</v>
+        <v>94316.71000000001</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2.45</v>
+        <v>7.51</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>2.82</v>
+        <v>17.19</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.79</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>002859</t>
+          <t>600189</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>洁美科技(涨幅:3.77)</t>
+          <t>泉阳泉(涨幅:1.72)</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2.62</v>
+        <v>0.15</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>28831.52</v>
+        <v>50639</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>49227.07</v>
+        <v>85779.28</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>69123.48</v>
+        <v>147550.1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1.4</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>300094</t>
+          <t>600200</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>国联水产(涨幅:3.31)</t>
+          <t>江苏吴中(涨幅:1.36)</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2.89</v>
+        <v>5.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3.47</v>
+        <v>1.36</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>384796.91</v>
+        <v>226192.09</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>765439.1899999999</v>
+        <v>426718.94</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>829016.25</v>
+        <v>427988.84</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>4.35</v>
+        <v>3.19</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>8.66</v>
+        <v>6.02</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>9.380000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-0.36</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>300106</t>
+          <t>600425</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>西部牧业(涨幅:1.43)</t>
+          <t>青松建化(涨幅:0.24)</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>92390.07000000001</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>310071.22</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>348009.13</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>2.25</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>29927.02</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>67259.56</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>73026.44</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>3.18</v>
-      </c>
       <c r="L15" s="0" t="n">
-        <v>3.45</v>
+        <v>2.53</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>300292</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>吴通控股(涨幅:1.42)</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>351352</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>807057.1899999999</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1084183.16</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>300447</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>全信股份(涨幅:3.45)</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>32135.3</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>112361.13</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>176793.63</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>300506</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>名家汇(涨幅:3.73)</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>83527.10000000001</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>109245.11</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>132442.87</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>300539</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>横河精密(涨幅:4.8)</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>76836.56</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>87213.75999999999</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>91339.78999999999</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>300740</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>水羊股份(涨幅:2.8)</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>59985.79</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>110485.61</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>111293.57</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>300767</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>震安科技(涨幅:1.42)</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>18792.88</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>25898.22</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>30638.56</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>300783</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>三只松鼠(涨幅:0.18)</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>53442.86</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>77601.39</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>78333.84</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>300791</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>仙乐健康(涨幅:5.09)</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>10391.62</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>12408</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>19151.85</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>300795</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>米奥会展(涨幅:7.48)</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>4886.93</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>10181</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>13085.83</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>300825</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>阿尔特(涨幅:5.06)</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>43756.33</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>127205.47</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>160009.64</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>300898</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>熊猫乳品(涨幅:5.92)</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>33969.95</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>52111.08</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>100041.84</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>301002</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>崧盛股份(涨幅:5.56)</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>14132.95</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>35560.86</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>46555.48</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>301079</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>邵阳液压(涨幅:4.34)</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>7654</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>15644.59</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>31497.15</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>301116</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>益客食品(涨幅:2.75)</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>58633.9</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>96690.78</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>129776.55</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>301120</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>新特电气(涨幅:3.02)</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>88145.05</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>144077.88</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>146012.25</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>-3.35</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>301235</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>华康医疗(涨幅:3.73)</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>14323</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>19525</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>23660.79</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>600059</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>古越龙山(涨幅:4.63)</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>270659.03</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>350372.66</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>442235.59</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>600163</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>中闽能源(涨幅:0.35)</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>136353.41</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>377873.22</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>391156.8</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>600300</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>维维股份(涨幅:1.75)</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>129777</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>252767.2</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>270783.68</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>600416</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>湘电股份(涨幅:1.49)</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>147424.66</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>247700.23</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>264227.11</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>山东药玻(涨幅:2.9)</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>45682.47</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>164844.42</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>185569.03</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>600779</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>水井坊(涨幅:3.89)</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>68204.23</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>108742.44</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>114537.57</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>600826</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>兰生股份(涨幅:1.42)</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>31142</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>72819.36</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>74342.59</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>0.34</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="M206" sqref="M206"/>
@@ -10950,6 +10950,2262 @@
       </c>
       <c r="M220" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>000157</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>313720.31</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>1410597.12</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>1947621.25</v>
+      </c>
+      <c r="J221" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K221" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M221" s="0" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>000516</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>国际医学</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>236133.48</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>537999.75</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>572275.5</v>
+      </c>
+      <c r="J222" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K222" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L222" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M222" s="0" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>广州浪奇</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>92583.98</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>216091.91</v>
+      </c>
+      <c r="I223" s="0" t="n">
+        <v>637155.6899999999</v>
+      </c>
+      <c r="J223" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K223" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L223" s="0" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M223" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>000610</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>西安旅游</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>136109.38</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>280849.84</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>433287.44</v>
+      </c>
+      <c r="J224" s="0" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K224" s="0" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L224" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M224" s="0" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>000799</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>酒鬼酒</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>71510.81</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>110325.73</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>173887.69</v>
+      </c>
+      <c r="J225" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K225" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L225" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="M225" s="0" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>东莞控股</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>25018.74</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>159069.88</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>223865.08</v>
+      </c>
+      <c r="J226" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K226" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L226" s="0" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M226" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>000860</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>顺鑫农业</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>154823.59</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>162058.73</v>
+      </c>
+      <c r="I227" s="0" t="n">
+        <v>171689.05</v>
+      </c>
+      <c r="J227" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K227" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L227" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M227" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>华铁股份</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>224546.91</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>819914.5</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>915980.9399999999</v>
+      </c>
+      <c r="J228" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K228" s="0" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="L228" s="0" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M228" s="0" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>002205</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>国统股份</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>48454.2</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>90049.22</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>122380.6</v>
+      </c>
+      <c r="J229" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K229" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="L229" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="M229" s="0" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>405366.41</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>793250</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>842241.4399999999</v>
+      </c>
+      <c r="J230" s="0" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="K230" s="0" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="L230" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M230" s="0" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>002372</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>伟星新材</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>33984.33</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>69024.96000000001</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>97651.24000000001</v>
+      </c>
+      <c r="J231" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K231" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L231" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M231" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>002695</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>煌上煌</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>46334</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>106263.02</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>161229.3</v>
+      </c>
+      <c r="J232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="L232" s="0" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M232" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>燕塘乳业</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>15235</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>34403.38</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>71468.39999999999</v>
+      </c>
+      <c r="J233" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K233" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L233" s="0" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M233" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>002852</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>道道全</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>36222</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>71594.59</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>99975.28999999999</v>
+      </c>
+      <c r="J234" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K234" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L234" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M234" s="0" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>002859</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>洁美科技</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>28831.52</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>49227.07</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>70725.48</v>
+      </c>
+      <c r="J235" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K235" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M235" s="0" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>300094</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>国联水产</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>384796.91</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>765439.1899999999</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>905178.8100000001</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K236" s="0" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>300106</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>西部牧业</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>29927.02</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>67259.56</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>78868.58</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K237" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M237" s="0" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>300133</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>华策影视</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>200220.78</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>425253.53</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>461169.44</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K238" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>300183</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>东软载波</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>113860.96</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>181640.52</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>226116.81</v>
+      </c>
+      <c r="J239" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K239" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="L239" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="M239" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>300292</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>吴通控股</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>351352</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>807057.1899999999</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <v>1143318.12</v>
+      </c>
+      <c r="J240" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K240" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="L240" s="0" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M240" s="0" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>300447</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>全信股份</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>32135.3</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>112361.13</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>188276.38</v>
+      </c>
+      <c r="J241" s="0" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K241" s="0" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L241" s="0" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="M241" s="0" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>300506</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>名家汇</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>83527.10000000001</v>
+      </c>
+      <c r="H242" s="0" t="n">
+        <v>109245.11</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>142130.38</v>
+      </c>
+      <c r="J242" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K242" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M242" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>300539</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>横河精密</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>76836.56</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>87213.75999999999</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>100086.19</v>
+      </c>
+      <c r="J243" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K243" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="M243" s="0" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>300633</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>开立医疗</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>35707.11</v>
+      </c>
+      <c r="H244" s="0" t="n">
+        <v>51164.93</v>
+      </c>
+      <c r="I244" s="0" t="n">
+        <v>60901.34</v>
+      </c>
+      <c r="J244" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K244" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L244" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M244" s="0" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>300682</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>朗新科技</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>66791.44</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>94836.7</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>141818.62</v>
+      </c>
+      <c r="J245" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K245" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M245" s="0" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>300740</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>水羊股份</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>59985.79</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>110485.61</v>
+      </c>
+      <c r="I246" s="0" t="n">
+        <v>123058.31</v>
+      </c>
+      <c r="J246" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K246" s="0" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="L246" s="0" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M246" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>300783</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>三只松鼠</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>53442.86</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>77601.39</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>87150.84</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K247" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M247" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>300791</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>仙乐健康</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>10391.62</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>12408</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>20556.85</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K248" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M248" s="0" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>300795</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>米奥会展</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>4886.93</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>10181</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>13677.83</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K249" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M249" s="0" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>300825</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>阿尔特</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>43756.33</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>127205.47</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>174741.64</v>
+      </c>
+      <c r="J250" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K250" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L250" s="0" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M250" s="0" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>300898</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>熊猫乳品</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>33969.95</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>52111.08</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>106945.33</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="K251" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="M251" s="0" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>300932</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>三友联众</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>19413.65</v>
+      </c>
+      <c r="H252" s="0" t="n">
+        <v>36220.97</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>82949.42999999999</v>
+      </c>
+      <c r="J252" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K252" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L252" s="0" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="M252" s="0" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>301002</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>崧盛股份</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>14132.95</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>35560.86</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>51998.28</v>
+      </c>
+      <c r="J253" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K253" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="L253" s="0" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="M253" s="0" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>301073</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>君亭酒店</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>24103.13</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>42628.92</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>46031.5</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="K254" s="0" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M254" s="0" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>301076</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>新瀚新材</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>27820.93</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>28970.2</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>33562.95</v>
+      </c>
+      <c r="J255" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K255" s="0" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="L255" s="0" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="M255" s="0" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>301079</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>邵阳液压</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>7654</v>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>15644.59</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>34722.95</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K256" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="M256" s="0" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>301097</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>天益医疗</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>4457.49</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>13259.11</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>13777.23</v>
+      </c>
+      <c r="J257" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K257" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L257" s="0" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="M257" s="0" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>301116</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>益客食品</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>58633.9</v>
+      </c>
+      <c r="H258" s="0" t="n">
+        <v>96690.78</v>
+      </c>
+      <c r="I258" s="0" t="n">
+        <v>139406.77</v>
+      </c>
+      <c r="J258" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="K258" s="0" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L258" s="0" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="M258" s="0" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>新特电气</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>88145.05</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <v>144077.88</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <v>158367.48</v>
+      </c>
+      <c r="J259" s="0" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="K259" s="0" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="L259" s="0" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="M259" s="0" t="n">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>301235</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>华康医疗</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G260" s="0" t="n">
+        <v>14323</v>
+      </c>
+      <c r="H260" s="0" t="n">
+        <v>19525</v>
+      </c>
+      <c r="I260" s="0" t="n">
+        <v>25622.76</v>
+      </c>
+      <c r="J260" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K260" s="0" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L260" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M260" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>600059</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>古越龙山</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>270659.03</v>
+      </c>
+      <c r="H261" s="0" t="n">
+        <v>350372.66</v>
+      </c>
+      <c r="I261" s="0" t="n">
+        <v>475129.59</v>
+      </c>
+      <c r="J261" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K261" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="L261" s="0" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="M261" s="0" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>600258</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>首旅酒店</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G262" s="0" t="n">
+        <v>149542.66</v>
+      </c>
+      <c r="H262" s="0" t="n">
+        <v>221607.31</v>
+      </c>
+      <c r="I262" s="0" t="n">
+        <v>245644.14</v>
+      </c>
+      <c r="J262" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K262" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L262" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M262" s="0" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>600300</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>维维股份</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>129777</v>
+      </c>
+      <c r="H263" s="0" t="n">
+        <v>252767.2</v>
+      </c>
+      <c r="I263" s="0" t="n">
+        <v>301130.59</v>
+      </c>
+      <c r="J263" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K263" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L263" s="0" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M263" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>600429</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>三元股份</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F264" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>52291.25</v>
+      </c>
+      <c r="H264" s="0" t="n">
+        <v>138570.55</v>
+      </c>
+      <c r="I264" s="0" t="n">
+        <v>218971.42</v>
+      </c>
+      <c r="J264" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K264" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L264" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M264" s="0" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>600529</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>山东药玻</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>45682.47</v>
+      </c>
+      <c r="H265" s="0" t="n">
+        <v>164844.42</v>
+      </c>
+      <c r="I265" s="0" t="n">
+        <v>195149.8</v>
+      </c>
+      <c r="J265" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K265" s="0" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L265" s="0" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M265" s="0" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>600702</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>舍得酒业</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>64939.03</v>
+      </c>
+      <c r="H266" s="0" t="n">
+        <v>65577.11</v>
+      </c>
+      <c r="I266" s="0" t="n">
+        <v>99164.96000000001</v>
+      </c>
+      <c r="J266" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K266" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L266" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>600779</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>水井坊</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>68204.23</v>
+      </c>
+      <c r="H267" s="0" t="n">
+        <v>108742.44</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>120377.7</v>
+      </c>
+      <c r="J267" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K267" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L267" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M267" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>600826</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>兰生股份</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>31142</v>
+      </c>
+      <c r="H268" s="0" t="n">
+        <v>72819.36</v>
+      </c>
+      <c r="I268" s="0" t="n">
+        <v>80947.39999999999</v>
+      </c>
+      <c r="J268" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K268" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L268" s="0" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M268" s="0" t="n">
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:M294"/>
   <sheetViews>
     <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="M206" sqref="M206"/>
@@ -13208,6 +13208,1228 @@
         <v>3.81</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>000715</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>中兴商业</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G269" t="n">
+        <v>146885.66</v>
+      </c>
+      <c r="H269" t="n">
+        <v>222106.95</v>
+      </c>
+      <c r="I269" t="n">
+        <v>249689.12</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K269" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L269" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>兔宝宝</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E270" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F270" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G270" t="n">
+        <v>388819.91</v>
+      </c>
+      <c r="H270" t="n">
+        <v>794260</v>
+      </c>
+      <c r="I270" t="n">
+        <v>944806.9399999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="K270" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="L270" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>002078</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>太阳纸业</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G271" t="n">
+        <v>244525.84</v>
+      </c>
+      <c r="H271" t="n">
+        <v>300397.56</v>
+      </c>
+      <c r="I271" t="n">
+        <v>406811.97</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>002198</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>嘉应制药</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E272" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F272" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="G272" t="n">
+        <v>63835</v>
+      </c>
+      <c r="H272" t="n">
+        <v>185484.88</v>
+      </c>
+      <c r="I272" t="n">
+        <v>211312.22</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K272" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L272" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>兄弟科技</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F273" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="G273" t="n">
+        <v>150860.41</v>
+      </c>
+      <c r="H273" t="n">
+        <v>457370.81</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1129094.12</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K273" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="L273" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>002596</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>海南瑞泽</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G274" t="n">
+        <v>252728</v>
+      </c>
+      <c r="H274" t="n">
+        <v>338594.09</v>
+      </c>
+      <c r="I274" t="n">
+        <v>533087.0600000001</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L274" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>瀛通通讯</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G275" t="n">
+        <v>35339.9</v>
+      </c>
+      <c r="H275" t="n">
+        <v>36915.8</v>
+      </c>
+      <c r="I275" t="n">
+        <v>112777.6</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="L275" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>002942</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>新农股份</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E276" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G276" t="n">
+        <v>10523.86</v>
+      </c>
+      <c r="H276" t="n">
+        <v>42545.65</v>
+      </c>
+      <c r="I276" t="n">
+        <v>54792.61</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K276" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L276" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M276" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>300084</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>海默科技</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G277" t="n">
+        <v>190141.98</v>
+      </c>
+      <c r="H277" t="n">
+        <v>221968.56</v>
+      </c>
+      <c r="I277" t="n">
+        <v>263691.69</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="K277" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="L277" t="n">
+        <v>8</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>300250</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>初灵信息</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G278" t="n">
+        <v>552845.5600000001</v>
+      </c>
+      <c r="H278" t="n">
+        <v>565557.12</v>
+      </c>
+      <c r="I278" t="n">
+        <v>641049.25</v>
+      </c>
+      <c r="J278" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K278" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="L278" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="M278" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>300401</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>花园生物</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G279" t="n">
+        <v>89370.41</v>
+      </c>
+      <c r="H279" t="n">
+        <v>182564.56</v>
+      </c>
+      <c r="I279" t="n">
+        <v>212439.42</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K279" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="L279" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>300500</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>启迪设计</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G280" t="n">
+        <v>47843</v>
+      </c>
+      <c r="H280" t="n">
+        <v>81297.39999999999</v>
+      </c>
+      <c r="I280" t="n">
+        <v>99606.16</v>
+      </c>
+      <c r="J280" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K280" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="L280" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>300518</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>盛讯达</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F281" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G281" t="n">
+        <v>20629.84</v>
+      </c>
+      <c r="H281" t="n">
+        <v>22181.42</v>
+      </c>
+      <c r="I281" t="n">
+        <v>26749.4</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>300616</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>尚品宅配</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G282" t="n">
+        <v>49096.4</v>
+      </c>
+      <c r="H282" t="n">
+        <v>76552.66</v>
+      </c>
+      <c r="I282" t="n">
+        <v>82245.99000000001</v>
+      </c>
+      <c r="J282" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K282" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L282" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>300682</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>朗新科技</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G283" t="n">
+        <v>94836.7</v>
+      </c>
+      <c r="H283" t="n">
+        <v>141818.62</v>
+      </c>
+      <c r="I283" t="n">
+        <v>195244.64</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M283" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>300779</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>惠城环保</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E284" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="G284" t="n">
+        <v>24279.93</v>
+      </c>
+      <c r="H284" t="n">
+        <v>43503.5</v>
+      </c>
+      <c r="I284" t="n">
+        <v>45404.6</v>
+      </c>
+      <c r="J284" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K284" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="L284" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>300795</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>米奥会展</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G285" t="n">
+        <v>10181</v>
+      </c>
+      <c r="H285" t="n">
+        <v>13677.83</v>
+      </c>
+      <c r="I285" t="n">
+        <v>13940.64</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K285" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M285" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>300915</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>海融科技</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G286" t="n">
+        <v>4518</v>
+      </c>
+      <c r="H286" t="n">
+        <v>9006.5</v>
+      </c>
+      <c r="I286" t="n">
+        <v>13317.88</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K286" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="L286" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>301020</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>密封科技</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G287" t="n">
+        <v>6293.4</v>
+      </c>
+      <c r="H287" t="n">
+        <v>35602.95</v>
+      </c>
+      <c r="I287" t="n">
+        <v>50017.72</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K287" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="L287" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="M287" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>301038</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>深水规院</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G288" t="n">
+        <v>8593.68</v>
+      </c>
+      <c r="H288" t="n">
+        <v>19758.77</v>
+      </c>
+      <c r="I288" t="n">
+        <v>27902.38</v>
+      </c>
+      <c r="J288" t="n">
+        <v>2</v>
+      </c>
+      <c r="K288" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="L288" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>新特电气</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E289" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F289" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G289" t="n">
+        <v>144077.88</v>
+      </c>
+      <c r="H289" t="n">
+        <v>158367.48</v>
+      </c>
+      <c r="I289" t="n">
+        <v>204346.95</v>
+      </c>
+      <c r="J289" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="K289" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="L289" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>600189</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>泉阳泉</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G290" t="n">
+        <v>50639</v>
+      </c>
+      <c r="H290" t="n">
+        <v>85779.28</v>
+      </c>
+      <c r="I290" t="n">
+        <v>147550.09</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>600200</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>江苏吴中</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E291" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G291" t="n">
+        <v>226192.09</v>
+      </c>
+      <c r="H291" t="n">
+        <v>426718.94</v>
+      </c>
+      <c r="I291" t="n">
+        <v>427988.84</v>
+      </c>
+      <c r="J291" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K291" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L291" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>600305</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>恒顺醋业</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G292" t="n">
+        <v>101849.17</v>
+      </c>
+      <c r="H292" t="n">
+        <v>322430.91</v>
+      </c>
+      <c r="I292" t="n">
+        <v>332014.78</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K292" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="L292" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>600827</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>百联股份</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G293" t="n">
+        <v>62599</v>
+      </c>
+      <c r="H293" t="n">
+        <v>156875.58</v>
+      </c>
+      <c r="I293" t="n">
+        <v>179145.28</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>300950</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>德固特</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G294" t="n">
+        <v>22805</v>
+      </c>
+      <c r="H294" t="n">
+        <v>34004.79</v>
+      </c>
+      <c r="I294" t="n">
+        <v>125956.69</v>
+      </c>
+      <c r="J294" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K294" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="L294" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="M294" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -13220,7 +14442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M38"/>
@@ -13298,659 +14520,941 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>002562</t>
+          <t>002227</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>兄弟科技(涨幅:7.31)</t>
+          <t>奥</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.57</v>
+        <v>1.96</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.6</v>
+        <v>2.19</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>7.31</v>
+        <v>2.21</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>150860.41</v>
+        <v>80253.71000000001</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>457370.81</v>
+        <v>109241.18</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1129094.17</v>
+        <v>176443.94</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2.16</v>
+        <v>3.27</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>6.54</v>
+        <v>4.45</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>16.15</v>
+        <v>7.19</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.79</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>002596</t>
+          <t>002325</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>海南瑞泽(涨幅:1.97)</t>
+          <t>洪涛股份(涨幅:0.46)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.6</v>
+        <v>4.83</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.97</v>
+        <v>0.46</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>252728</v>
+        <v>268737.62</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>338594.09</v>
+        <v>1612822.12</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>533087.03</v>
+        <v>1680256.19</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3.25</v>
+        <v>11.26</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>5.12</v>
+        <v>11.73</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>-0.34</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>002362</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>瀛通通讯(涨幅:1.69)</t>
+          <t>汉王科技(涨幅:3.1)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.66</v>
+        <v>1.83</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.06</v>
+        <v>3.44</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.69</v>
+        <v>3.1</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>35339.9</v>
+        <v>525912.0600000001</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>36915.8</v>
+        <v>657215.8100000001</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>112777.6</v>
+        <v>723046.38</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3.26</v>
+        <v>25.42</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3.41</v>
+        <v>31.77</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>10.42</v>
+        <v>34.95</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2.37</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>300084</t>
+          <t>002519</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>海默科技(涨幅:2.41)</t>
+          <t>银河电子(涨幅:4.82)</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.71</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.41</v>
+        <v>4.82</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>190141.98</v>
+        <v>185717</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>221968.56</v>
+        <v>397974.59</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>263691.7</v>
+        <v>733648.6800000001</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>5.77</v>
+        <v>1.87</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>6.73</v>
+        <v>4.01</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>8</v>
+        <v>7.39</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.82</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>300401</t>
+          <t>002827</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>花园生物(涨幅:2.58)</t>
+          <t>高争民爆(涨幅:3.75)</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3.27</v>
+        <v>2.63</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.58</v>
+        <v>3.75</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>89370.41</v>
+        <v>40384</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>182564.56</v>
+        <v>76805.5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>212439.42</v>
+        <v>176988.52</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3.37</v>
+        <v>2.78</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3.92</v>
+        <v>6.41</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>-0.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>300500</t>
+          <t>300039</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>启迪设计(涨幅:1.82)</t>
+          <t>上海凯宝(涨幅:7.42)</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.3</v>
+        <v>2.07</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.82</v>
+        <v>7.42</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>47843</v>
+        <v>377836.81</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>81297.39999999999</v>
+        <v>970593.12</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>99606.16</v>
+        <v>1591022.87</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2.91</v>
+        <v>4.12</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>4.95</v>
+        <v>10.59</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>6.06</v>
+        <v>17.36</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>-0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>300518</t>
+          <t>300062</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>盛讯达(涨幅:4.13)</t>
+          <t>中能电气(涨幅:2.73)</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3.02</v>
+        <v>3.26</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.13</v>
+        <v>2.73</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>20629.84</v>
+        <v>151897</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>22181.42</v>
+        <v>348068.97</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>26749.4</v>
+        <v>487934.62</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1.51</v>
+        <v>4.01</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1.62</v>
+        <v>9.19</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.95</v>
+        <v>12.88</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>-0.34</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>300616</t>
+          <t>300141</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>尚品宅配(涨幅:3.72)</t>
+          <t>和顺电气(涨幅:3.0)</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.67</v>
+        <v>2.21</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4.76</v>
+        <v>2.88</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>49096.4</v>
+        <v>48750.31</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>76552.66</v>
+        <v>91069.2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>82245.99000000001</v>
+        <v>112820.31</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3.77</v>
+        <v>2.48</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>5.88</v>
+        <v>4.63</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>6.32</v>
+        <v>5.74</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>300915</t>
+          <t>300305</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>海融科技(涨幅:2.62)</t>
+          <t>裕兴股份(涨幅:0.28)</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.62</v>
+        <v>0.28</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4518</v>
+        <v>25998</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>9006.5</v>
+        <v>50375.61</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>13317.88</v>
+        <v>57504.89</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1.82</v>
+        <v>1.12</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3.63</v>
+        <v>2.17</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>5.37</v>
+        <v>2.48</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>-0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>301038</t>
+          <t>300398</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>深水规院(涨幅:0.98)</t>
+          <t>飞凯材料(涨幅:3.27)</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.63</v>
+        <v>1.03</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.98</v>
+        <v>3.27</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>8593.68</v>
+        <v>117736.04</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>19758.77</v>
+        <v>219577.31</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>27902.38</v>
+        <v>249755.1</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>4.61</v>
+        <v>4.18</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>6.51</v>
+        <v>4.75</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>301228</t>
+          <t>300632</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>实朴检测(涨幅:3.78)</t>
+          <t>光莆股份(涨幅:1.43)</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5.78</v>
+        <v>2.2</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3.78</v>
+        <v>1.43</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>6581.43</v>
+        <v>49551.66</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>41210.46</v>
+        <v>69288.35000000001</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>94316.71000000001</v>
+        <v>76991.60000000001</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.2</v>
+        <v>2.42</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>7.51</v>
+        <v>3.38</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>17.19</v>
+        <v>3.76</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>2.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>600189</t>
+          <t>300724</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>泉阳泉(涨幅:1.72)</t>
+          <t>捷佳伟创(涨幅:6.05)</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.15</v>
+        <v>2.18</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.2</v>
+        <v>4.29</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1.72</v>
+        <v>6.05</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>50639</v>
+        <v>63126.73</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>85779.28</v>
+        <v>124189.23</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>147550.1</v>
+        <v>163852.98</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.71</v>
+        <v>2.31</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1.2</v>
+        <v>4.55</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>-0.23</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>600200</t>
+          <t>300811</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>江苏吴中(涨幅:1.36)</t>
+          <t>铂科新材(涨幅:3.16)</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.24</v>
+        <v>2.76</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>5.5</v>
+        <v>5.57</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1.36</v>
+        <v>3.16</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>226192.09</v>
+        <v>9554.58</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>426718.94</v>
+        <v>24441.33</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>427988.84</v>
+        <v>36960.25</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>3.19</v>
+        <v>1.11</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>6.02</v>
+        <v>2.83</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>6.04</v>
+        <v>4.28</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-0.6</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>600425</t>
+          <t>300826</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>青松建化(涨幅:0.24)</t>
+          <t>测绘股份(涨幅:4.58)</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.25</v>
+        <v>1.23</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>2.48</v>
+        <v>2.73</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.24</v>
+        <v>4.58</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>92390.07000000001</v>
+        <v>11954.96</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>310071.22</v>
+        <v>21888.24</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>348009.13</v>
+        <v>65299.22</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.67</v>
+        <v>1.78</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>2.53</v>
+        <v>9.76</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.64</v>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>300981</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>中红医疗(涨幅:3.45)</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>32571.83</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>63041.97</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>68338.27</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>301133</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>金钟股份(涨幅:4.18)</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>7319.06</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>14555.54</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>30314.5</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>600351</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>亚宝药业(涨幅:0.63)</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>79914.33</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>154809.06</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>189877.4</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>600362</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>江西铜业(涨幅:2.72)</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>95452.45</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>347873.62</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>469410.43</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>600422</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>昆药集团(涨幅:1.83)</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>78580.03</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>86052.42999999999</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>117927.4</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>600498</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>烽火通信(涨幅:6.17)</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>155610.19</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>248450.59</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>414040.73</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -13209,1224 +13209,1224 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="A269" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="0" t="inlineStr">
         <is>
           <t>000715</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="0" t="inlineStr">
         <is>
           <t>中兴商业</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="0" t="n">
         <v>1.42</v>
       </c>
-      <c r="E269" t="n">
+      <c r="E269" s="0" t="n">
         <v>2.03</v>
       </c>
-      <c r="F269" t="n">
+      <c r="F269" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="G269" t="n">
+      <c r="G269" s="0" t="n">
         <v>146885.66</v>
       </c>
-      <c r="H269" t="n">
+      <c r="H269" s="0" t="n">
         <v>222106.95</v>
       </c>
-      <c r="I269" t="n">
+      <c r="I269" s="0" t="n">
         <v>249689.12</v>
       </c>
-      <c r="J269" t="n">
+      <c r="J269" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="K269" t="n">
+      <c r="K269" s="0" t="n">
         <v>5.35</v>
       </c>
-      <c r="L269" t="n">
+      <c r="L269" s="0" t="n">
         <v>6.02</v>
       </c>
-      <c r="M269" t="n">
+      <c r="M269" s="0" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="0" t="inlineStr">
         <is>
           <t>002043</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="0" t="inlineStr">
         <is>
           <t>兔宝宝</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="0" t="n">
         <v>0.91</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E270" s="0" t="n">
         <v>6.09</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F270" s="0" t="n">
         <v>6.17</v>
       </c>
-      <c r="G270" t="n">
+      <c r="G270" s="0" t="n">
         <v>388819.91</v>
       </c>
-      <c r="H270" t="n">
+      <c r="H270" s="0" t="n">
         <v>794260</v>
       </c>
-      <c r="I270" t="n">
+      <c r="I270" s="0" t="n">
         <v>944806.9399999999</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270" s="0" t="n">
         <v>5.61</v>
       </c>
-      <c r="K270" t="n">
+      <c r="K270" s="0" t="n">
         <v>11.46</v>
       </c>
-      <c r="L270" t="n">
+      <c r="L270" s="0" t="n">
         <v>13.63</v>
       </c>
-      <c r="M270" t="n">
+      <c r="M270" s="0" t="n">
         <v>-0.87</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="0" t="inlineStr">
         <is>
           <t>002078</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="0" t="inlineStr">
         <is>
           <t>太阳纸业</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271" s="0" t="n">
         <v>2.02</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="G271" t="n">
+      <c r="G271" s="0" t="n">
         <v>244525.84</v>
       </c>
-      <c r="H271" t="n">
+      <c r="H271" s="0" t="n">
         <v>300397.56</v>
       </c>
-      <c r="I271" t="n">
+      <c r="I271" s="0" t="n">
         <v>406811.97</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271" s="0" t="n">
         <v>0.89</v>
       </c>
-      <c r="K271" t="n">
+      <c r="K271" s="0" t="n">
         <v>1.09</v>
       </c>
-      <c r="L271" t="n">
+      <c r="L271" s="0" t="n">
         <v>1.48</v>
       </c>
-      <c r="M271" t="n">
+      <c r="M271" s="0" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="0" t="inlineStr">
         <is>
           <t>002198</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" s="0" t="inlineStr">
         <is>
           <t>嘉应制药</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" s="0" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272" s="0" t="n">
         <v>5.73</v>
       </c>
-      <c r="G272" t="n">
+      <c r="G272" s="0" t="n">
         <v>63835</v>
       </c>
-      <c r="H272" t="n">
+      <c r="H272" s="0" t="n">
         <v>185484.88</v>
       </c>
-      <c r="I272" t="n">
+      <c r="I272" s="0" t="n">
         <v>211312.22</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272" s="0" t="n">
         <v>1.26</v>
       </c>
-      <c r="K272" t="n">
+      <c r="K272" s="0" t="n">
         <v>3.65</v>
       </c>
-      <c r="L272" t="n">
+      <c r="L272" s="0" t="n">
         <v>4.16</v>
       </c>
-      <c r="M272" t="n">
+      <c r="M272" s="0" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="0" t="inlineStr">
         <is>
           <t>002562</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="0" t="inlineStr">
         <is>
           <t>兄弟科技</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="0" t="n">
         <v>0.57</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273" s="0" t="n">
         <v>7.31</v>
       </c>
-      <c r="G273" t="n">
+      <c r="G273" s="0" t="n">
         <v>150860.41</v>
       </c>
-      <c r="H273" t="n">
+      <c r="H273" s="0" t="n">
         <v>457370.81</v>
       </c>
-      <c r="I273" t="n">
+      <c r="I273" s="0" t="n">
         <v>1129094.12</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="K273" t="n">
+      <c r="K273" s="0" t="n">
         <v>6.54</v>
       </c>
-      <c r="L273" t="n">
+      <c r="L273" s="0" t="n">
         <v>16.13</v>
       </c>
-      <c r="M273" t="n">
+      <c r="M273" s="0" t="n">
         <v>0.51</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="A274" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="0" t="inlineStr">
         <is>
           <t>002596</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="0" t="inlineStr">
         <is>
           <t>海南瑞泽</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="E274" t="n">
+      <c r="E274" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="F274" t="n">
+      <c r="F274" s="0" t="n">
         <v>1.97</v>
       </c>
-      <c r="G274" t="n">
+      <c r="G274" s="0" t="n">
         <v>252728</v>
       </c>
-      <c r="H274" t="n">
+      <c r="H274" s="0" t="n">
         <v>338594.09</v>
       </c>
-      <c r="I274" t="n">
+      <c r="I274" s="0" t="n">
         <v>533087.0600000001</v>
       </c>
-      <c r="J274" t="n">
+      <c r="J274" s="0" t="n">
         <v>2.43</v>
       </c>
-      <c r="K274" t="n">
+      <c r="K274" s="0" t="n">
         <v>3.25</v>
       </c>
-      <c r="L274" t="n">
+      <c r="L274" s="0" t="n">
         <v>5.12</v>
       </c>
-      <c r="M274" t="n">
+      <c r="M274" s="0" t="n">
         <v>1.66</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="0" t="inlineStr">
         <is>
           <t>002861</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="0" t="inlineStr">
         <is>
           <t>瀛通通讯</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275" s="0" t="n">
         <v>2.06</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275" s="0" t="n">
         <v>1.69</v>
       </c>
-      <c r="G275" t="n">
+      <c r="G275" s="0" t="n">
         <v>35339.9</v>
       </c>
-      <c r="H275" t="n">
+      <c r="H275" s="0" t="n">
         <v>36915.8</v>
       </c>
-      <c r="I275" t="n">
+      <c r="I275" s="0" t="n">
         <v>112777.6</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275" s="0" t="n">
         <v>3.26</v>
       </c>
-      <c r="K275" t="n">
+      <c r="K275" s="0" t="n">
         <v>3.41</v>
       </c>
-      <c r="L275" t="n">
+      <c r="L275" s="0" t="n">
         <v>10.41</v>
       </c>
-      <c r="M275" t="n">
+      <c r="M275" s="0" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="0" t="inlineStr">
         <is>
           <t>002942</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="0" t="inlineStr">
         <is>
           <t>新农股份</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="E276" t="n">
+      <c r="E276" s="0" t="n">
         <v>6.7</v>
       </c>
-      <c r="F276" t="n">
+      <c r="F276" s="0" t="n">
         <v>4.86</v>
       </c>
-      <c r="G276" t="n">
+      <c r="G276" s="0" t="n">
         <v>10523.86</v>
       </c>
-      <c r="H276" t="n">
+      <c r="H276" s="0" t="n">
         <v>42545.65</v>
       </c>
-      <c r="I276" t="n">
+      <c r="I276" s="0" t="n">
         <v>54792.61</v>
       </c>
-      <c r="J276" t="n">
+      <c r="J276" s="0" t="n">
         <v>0.76</v>
       </c>
-      <c r="K276" t="n">
+      <c r="K276" s="0" t="n">
         <v>3.08</v>
       </c>
-      <c r="L276" t="n">
+      <c r="L276" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="M276" t="n">
+      <c r="M276" s="0" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="0" t="inlineStr">
         <is>
           <t>300084</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="0" t="inlineStr">
         <is>
           <t>海默科技</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="E277" t="n">
+      <c r="E277" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="F277" t="n">
+      <c r="F277" s="0" t="n">
         <v>2.41</v>
       </c>
-      <c r="G277" t="n">
+      <c r="G277" s="0" t="n">
         <v>190141.98</v>
       </c>
-      <c r="H277" t="n">
+      <c r="H277" s="0" t="n">
         <v>221968.56</v>
       </c>
-      <c r="I277" t="n">
+      <c r="I277" s="0" t="n">
         <v>263691.69</v>
       </c>
-      <c r="J277" t="n">
+      <c r="J277" s="0" t="n">
         <v>5.77</v>
       </c>
-      <c r="K277" t="n">
+      <c r="K277" s="0" t="n">
         <v>6.73</v>
       </c>
-      <c r="L277" t="n">
+      <c r="L277" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M277" t="n">
+      <c r="M277" s="0" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="0" t="inlineStr">
         <is>
           <t>300250</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="0" t="inlineStr">
         <is>
           <t>初灵信息</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="F278" t="n">
+      <c r="F278" s="0" t="n">
         <v>3.25</v>
       </c>
-      <c r="G278" t="n">
+      <c r="G278" s="0" t="n">
         <v>552845.5600000001</v>
       </c>
-      <c r="H278" t="n">
+      <c r="H278" s="0" t="n">
         <v>565557.12</v>
       </c>
-      <c r="I278" t="n">
+      <c r="I278" s="0" t="n">
         <v>641049.25</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278" s="0" t="n">
         <v>34.7</v>
       </c>
-      <c r="K278" t="n">
+      <c r="K278" s="0" t="n">
         <v>35.49</v>
       </c>
-      <c r="L278" t="n">
+      <c r="L278" s="0" t="n">
         <v>40.23</v>
       </c>
-      <c r="M278" t="n">
+      <c r="M278" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="0" t="inlineStr">
         <is>
           <t>300401</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="0" t="inlineStr">
         <is>
           <t>花园生物</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E279" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F279" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="G279" t="n">
+      <c r="G279" s="0" t="n">
         <v>89370.41</v>
       </c>
-      <c r="H279" t="n">
+      <c r="H279" s="0" t="n">
         <v>182564.56</v>
       </c>
-      <c r="I279" t="n">
+      <c r="I279" s="0" t="n">
         <v>212439.42</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="K279" t="n">
+      <c r="K279" s="0" t="n">
         <v>3.37</v>
       </c>
-      <c r="L279" t="n">
+      <c r="L279" s="0" t="n">
         <v>3.92</v>
       </c>
-      <c r="M279" t="n">
+      <c r="M279" s="0" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="A280" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="0" t="inlineStr">
         <is>
           <t>300500</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="0" t="inlineStr">
         <is>
           <t>启迪设计</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="E280" t="n">
+      <c r="E280" s="0" t="n">
         <v>4.08</v>
       </c>
-      <c r="F280" t="n">
+      <c r="F280" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="G280" t="n">
+      <c r="G280" s="0" t="n">
         <v>47843</v>
       </c>
-      <c r="H280" t="n">
+      <c r="H280" s="0" t="n">
         <v>81297.39999999999</v>
       </c>
-      <c r="I280" t="n">
+      <c r="I280" s="0" t="n">
         <v>99606.16</v>
       </c>
-      <c r="J280" t="n">
+      <c r="J280" s="0" t="n">
         <v>2.91</v>
       </c>
-      <c r="K280" t="n">
+      <c r="K280" s="0" t="n">
         <v>4.95</v>
       </c>
-      <c r="L280" t="n">
+      <c r="L280" s="0" t="n">
         <v>6.06</v>
       </c>
-      <c r="M280" t="n">
+      <c r="M280" s="0" t="n">
         <v>0.89</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="0" t="inlineStr">
         <is>
           <t>300518</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="0" t="inlineStr">
         <is>
           <t>盛讯达</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="0" t="n">
         <v>0.47</v>
       </c>
-      <c r="E281" t="n">
+      <c r="E281" s="0" t="n">
         <v>3.02</v>
       </c>
-      <c r="F281" t="n">
+      <c r="F281" s="0" t="n">
         <v>4.13</v>
       </c>
-      <c r="G281" t="n">
+      <c r="G281" s="0" t="n">
         <v>20629.84</v>
       </c>
-      <c r="H281" t="n">
+      <c r="H281" s="0" t="n">
         <v>22181.42</v>
       </c>
-      <c r="I281" t="n">
+      <c r="I281" s="0" t="n">
         <v>26749.4</v>
       </c>
-      <c r="J281" t="n">
+      <c r="J281" s="0" t="n">
         <v>1.51</v>
       </c>
-      <c r="K281" t="n">
+      <c r="K281" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="L281" t="n">
+      <c r="L281" s="0" t="n">
         <v>1.96</v>
       </c>
-      <c r="M281" t="n">
+      <c r="M281" s="0" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="0" t="inlineStr">
         <is>
           <t>300616</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="0" t="inlineStr">
         <is>
           <t>尚品宅配</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282" s="0" t="n">
         <v>4.76</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282" s="0" t="n">
         <v>3.72</v>
       </c>
-      <c r="G282" t="n">
+      <c r="G282" s="0" t="n">
         <v>49096.4</v>
       </c>
-      <c r="H282" t="n">
+      <c r="H282" s="0" t="n">
         <v>76552.66</v>
       </c>
-      <c r="I282" t="n">
+      <c r="I282" s="0" t="n">
         <v>82245.99000000001</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="K282" t="n">
+      <c r="K282" s="0" t="n">
         <v>5.88</v>
       </c>
-      <c r="L282" t="n">
+      <c r="L282" s="0" t="n">
         <v>6.32</v>
       </c>
-      <c r="M282" t="n">
+      <c r="M282" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="0" t="inlineStr">
         <is>
           <t>300682</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="0" t="inlineStr">
         <is>
           <t>朗新科技</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="0" t="n">
         <v>2.52</v>
       </c>
-      <c r="E283" t="n">
+      <c r="E283" s="0" t="n">
         <v>5.06</v>
       </c>
-      <c r="F283" t="n">
+      <c r="F283" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="G283" t="n">
+      <c r="G283" s="0" t="n">
         <v>94836.7</v>
       </c>
-      <c r="H283" t="n">
+      <c r="H283" s="0" t="n">
         <v>141818.62</v>
       </c>
-      <c r="I283" t="n">
+      <c r="I283" s="0" t="n">
         <v>195244.64</v>
       </c>
-      <c r="J283" t="n">
+      <c r="J283" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="K283" t="n">
+      <c r="K283" s="0" t="n">
         <v>1.38</v>
       </c>
-      <c r="L283" t="n">
+      <c r="L283" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="M283" t="n">
+      <c r="M283" s="0" t="n">
         <v>4.72</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="A284" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="0" t="inlineStr">
         <is>
           <t>300779</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="0" t="inlineStr">
         <is>
           <t>惠城环保</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="E284" t="n">
+      <c r="E284" s="0" t="n">
         <v>6.93</v>
       </c>
-      <c r="F284" t="n">
+      <c r="F284" s="0" t="n">
         <v>5.84</v>
       </c>
-      <c r="G284" t="n">
+      <c r="G284" s="0" t="n">
         <v>24279.93</v>
       </c>
-      <c r="H284" t="n">
+      <c r="H284" s="0" t="n">
         <v>43503.5</v>
       </c>
-      <c r="I284" t="n">
+      <c r="I284" s="0" t="n">
         <v>45404.6</v>
       </c>
-      <c r="J284" t="n">
+      <c r="J284" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="K284" t="n">
+      <c r="K284" s="0" t="n">
         <v>4.84</v>
       </c>
-      <c r="L284" t="n">
+      <c r="L284" s="0" t="n">
         <v>5.05</v>
       </c>
-      <c r="M284" t="n">
+      <c r="M284" s="0" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="A285" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="0" t="inlineStr">
         <is>
           <t>300795</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="0" t="inlineStr">
         <is>
           <t>米奥会展</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="0" t="n">
         <v>3.41</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E285" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F285" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="G285" t="n">
+      <c r="G285" s="0" t="n">
         <v>10181</v>
       </c>
-      <c r="H285" t="n">
+      <c r="H285" s="0" t="n">
         <v>13677.83</v>
       </c>
-      <c r="I285" t="n">
+      <c r="I285" s="0" t="n">
         <v>13940.64</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="K285" t="n">
+      <c r="K285" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="L285" t="n">
+      <c r="L285" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="M285" t="n">
+      <c r="M285" s="0" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="A286" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="0" t="inlineStr">
         <is>
           <t>300915</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="0" t="inlineStr">
         <is>
           <t>海融科技</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="0" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E286" t="n">
+      <c r="E286" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="F286" t="n">
+      <c r="F286" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="G286" t="n">
+      <c r="G286" s="0" t="n">
         <v>4518</v>
       </c>
-      <c r="H286" t="n">
+      <c r="H286" s="0" t="n">
         <v>9006.5</v>
       </c>
-      <c r="I286" t="n">
+      <c r="I286" s="0" t="n">
         <v>13317.88</v>
       </c>
-      <c r="J286" t="n">
+      <c r="J286" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="K286" t="n">
+      <c r="K286" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="L286" t="n">
+      <c r="L286" s="0" t="n">
         <v>5.37</v>
       </c>
-      <c r="M286" t="n">
+      <c r="M286" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="A287" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="0" t="inlineStr">
         <is>
           <t>301020</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" s="0" t="inlineStr">
         <is>
           <t>密封科技</t>
         </is>
       </c>
-      <c r="D287" t="n">
+      <c r="D287" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="E287" t="n">
+      <c r="E287" s="0" t="n">
         <v>5.24</v>
       </c>
-      <c r="F287" t="n">
+      <c r="F287" s="0" t="n">
         <v>7.04</v>
       </c>
-      <c r="G287" t="n">
+      <c r="G287" s="0" t="n">
         <v>6293.4</v>
       </c>
-      <c r="H287" t="n">
+      <c r="H287" s="0" t="n">
         <v>35602.95</v>
       </c>
-      <c r="I287" t="n">
+      <c r="I287" s="0" t="n">
         <v>50017.72</v>
       </c>
-      <c r="J287" t="n">
+      <c r="J287" s="0" t="n">
         <v>0.86</v>
       </c>
-      <c r="K287" t="n">
+      <c r="K287" s="0" t="n">
         <v>4.88</v>
       </c>
-      <c r="L287" t="n">
+      <c r="L287" s="0" t="n">
         <v>6.86</v>
       </c>
-      <c r="M287" t="n">
+      <c r="M287" s="0" t="n">
         <v>-0.14</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="A288" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="0" t="inlineStr">
         <is>
           <t>301038</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="0" t="inlineStr">
         <is>
           <t>深水规院</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288" s="0" t="n">
         <v>2.44</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="G288" t="n">
+      <c r="G288" s="0" t="n">
         <v>8593.68</v>
       </c>
-      <c r="H288" t="n">
+      <c r="H288" s="0" t="n">
         <v>19758.77</v>
       </c>
-      <c r="I288" t="n">
+      <c r="I288" s="0" t="n">
         <v>27902.38</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K288" t="n">
+      <c r="K288" s="0" t="n">
         <v>4.61</v>
       </c>
-      <c r="L288" t="n">
+      <c r="L288" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="M288" t="n">
+      <c r="M288" s="0" t="n">
         <v>1.45</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="A289" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="0" t="inlineStr">
         <is>
           <t>301120</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" s="0" t="inlineStr">
         <is>
           <t>新特电气</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D289" s="0" t="n">
         <v>5.83</v>
       </c>
-      <c r="E289" t="n">
+      <c r="E289" s="0" t="n">
         <v>3.02</v>
       </c>
-      <c r="F289" t="n">
+      <c r="F289" s="0" t="n">
         <v>7.64</v>
       </c>
-      <c r="G289" t="n">
+      <c r="G289" s="0" t="n">
         <v>144077.88</v>
       </c>
-      <c r="H289" t="n">
+      <c r="H289" s="0" t="n">
         <v>158367.48</v>
       </c>
-      <c r="I289" t="n">
+      <c r="I289" s="0" t="n">
         <v>204346.95</v>
       </c>
-      <c r="J289" t="n">
+      <c r="J289" s="0" t="n">
         <v>25.46</v>
       </c>
-      <c r="K289" t="n">
+      <c r="K289" s="0" t="n">
         <v>27.98</v>
       </c>
-      <c r="L289" t="n">
+      <c r="L289" s="0" t="n">
         <v>36.11</v>
       </c>
-      <c r="M289" t="n">
+      <c r="M289" s="0" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="A290" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B290" s="0" t="inlineStr">
         <is>
           <t>600189</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C290" s="0" t="inlineStr">
         <is>
           <t>泉阳泉</t>
         </is>
       </c>
-      <c r="D290" t="n">
+      <c r="D290" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="E290" t="n">
+      <c r="E290" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="F290" t="n">
+      <c r="F290" s="0" t="n">
         <v>1.72</v>
       </c>
-      <c r="G290" t="n">
+      <c r="G290" s="0" t="n">
         <v>50639</v>
       </c>
-      <c r="H290" t="n">
+      <c r="H290" s="0" t="n">
         <v>85779.28</v>
       </c>
-      <c r="I290" t="n">
+      <c r="I290" s="0" t="n">
         <v>147550.09</v>
       </c>
-      <c r="J290" t="n">
+      <c r="J290" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="K290" t="n">
+      <c r="K290" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="L290" t="n">
+      <c r="L290" s="0" t="n">
         <v>2.06</v>
       </c>
-      <c r="M290" t="n">
+      <c r="M290" s="0" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="A291" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="0" t="inlineStr">
         <is>
           <t>600200</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="0" t="inlineStr">
         <is>
           <t>江苏吴中</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="E291" t="n">
+      <c r="E291" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="F291" t="n">
+      <c r="F291" s="0" t="n">
         <v>1.36</v>
       </c>
-      <c r="G291" t="n">
+      <c r="G291" s="0" t="n">
         <v>226192.09</v>
       </c>
-      <c r="H291" t="n">
+      <c r="H291" s="0" t="n">
         <v>426718.94</v>
       </c>
-      <c r="I291" t="n">
+      <c r="I291" s="0" t="n">
         <v>427988.84</v>
       </c>
-      <c r="J291" t="n">
+      <c r="J291" s="0" t="n">
         <v>3.19</v>
       </c>
-      <c r="K291" t="n">
+      <c r="K291" s="0" t="n">
         <v>6.02</v>
       </c>
-      <c r="L291" t="n">
+      <c r="L291" s="0" t="n">
         <v>6.04</v>
       </c>
-      <c r="M291" t="n">
+      <c r="M291" s="0" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="A292" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="0" t="inlineStr">
         <is>
           <t>600305</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="0" t="inlineStr">
         <is>
           <t>恒顺醋业</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="0" t="n">
         <v>0.41</v>
       </c>
-      <c r="E292" t="n">
+      <c r="E292" s="0" t="n">
         <v>3.88</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F292" s="0" t="n">
         <v>3.33</v>
       </c>
-      <c r="G292" t="n">
+      <c r="G292" s="0" t="n">
         <v>101849.17</v>
       </c>
-      <c r="H292" t="n">
+      <c r="H292" s="0" t="n">
         <v>322430.91</v>
       </c>
-      <c r="I292" t="n">
+      <c r="I292" s="0" t="n">
         <v>332014.78</v>
       </c>
-      <c r="J292" t="n">
+      <c r="J292" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="K292" t="n">
+      <c r="K292" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="L292" t="n">
+      <c r="L292" s="0" t="n">
         <v>3.31</v>
       </c>
-      <c r="M292" t="n">
+      <c r="M292" s="0" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
+      <c r="A293" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="0" t="inlineStr">
         <is>
           <t>600827</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="0" t="inlineStr">
         <is>
           <t>百联股份</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="E293" t="n">
+      <c r="E293" s="0" t="n">
         <v>2.07</v>
       </c>
-      <c r="F293" t="n">
+      <c r="F293" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="G293" t="n">
+      <c r="G293" s="0" t="n">
         <v>62599</v>
       </c>
-      <c r="H293" t="n">
+      <c r="H293" s="0" t="n">
         <v>156875.58</v>
       </c>
-      <c r="I293" t="n">
+      <c r="I293" s="0" t="n">
         <v>179145.28</v>
       </c>
-      <c r="J293" t="n">
+      <c r="J293" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="K293" t="n">
+      <c r="K293" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="L293" t="n">
+      <c r="L293" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="M293" t="n">
+      <c r="M293" s="0" t="n">
         <v>0.66</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="A294" s="0" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B294" s="0" t="inlineStr">
         <is>
           <t>300950</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C294" s="0" t="inlineStr">
         <is>
           <t>德固特</t>
         </is>
       </c>
-      <c r="D294" t="n">
+      <c r="D294" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E294" t="n">
+      <c r="E294" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="F294" t="n">
+      <c r="F294" s="0" t="n">
         <v>6.43</v>
       </c>
-      <c r="G294" t="n">
+      <c r="G294" s="0" t="n">
         <v>22805</v>
       </c>
-      <c r="H294" t="n">
+      <c r="H294" s="0" t="n">
         <v>34004.79</v>
       </c>
-      <c r="I294" t="n">
+      <c r="I294" s="0" t="n">
         <v>125956.69</v>
       </c>
-      <c r="J294" t="n">
+      <c r="J294" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="K294" t="n">
+      <c r="K294" s="0" t="n">
         <v>5.67</v>
       </c>
-      <c r="L294" t="n">
+      <c r="L294" s="0" t="n">
         <v>20.99</v>
       </c>
-      <c r="M294" t="n">
+      <c r="M294" s="0" t="n">
         <v>-0.86</v>
       </c>
     </row>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T188"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -13398,6 +13398,890 @@
         <v>1.08</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>300001</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>特锐德</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>193027.92</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>338430.53</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>382812.25</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="N189" s="0" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O189" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="P189" s="0" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="Q189" s="0" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="R189" s="0" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="S189" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T189" s="0" t="n">
+        <v>-1.14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>300039</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>上海凯宝</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>377836.81</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>970593.12</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>1591022.88</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="L190" s="0" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="N190" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O190" s="0" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P190" s="0" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="Q190" s="0" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="R190" s="0" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="S190" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T190" s="0" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>300062</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>中能电气</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>151897</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>348068.97</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>487934.62</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K191" s="0" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="L191" s="0" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="M191" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N191" s="0" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O191" s="0" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="P191" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="Q191" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="R191" s="0" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="S191" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T191" s="0" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>300141</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>和顺电气</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>48750.31</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>91069.2</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>112820.31</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L192" s="0" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M192" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N192" s="0" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O192" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P192" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Q192" s="0" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="R192" s="0" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="S192" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T192" s="0" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>300398</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>飞凯材料</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>117736.04</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>219577.31</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>249755.09</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M193" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N193" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="O193" s="0" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="P193" s="0" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="Q193" s="0" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="R193" s="0" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="S193" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T193" s="0" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>300632</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>光莆股份</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>49551.66</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>69288.35000000001</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>76991.60000000001</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K194" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M194" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N194" s="0" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O194" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P194" s="0" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Q194" s="0" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="R194" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="S194" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T194" s="0" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>300724</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>捷佳伟创</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>63126.73</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>124189.23</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>163852.98</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M195" s="0" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="N195" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O195" s="0" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="P195" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="Q195" s="0" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="R195" s="0" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="S195" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T195" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>300811</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>铂科新材</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>9554.58</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>24441.33</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>36960.25</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M196" s="0" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="N196" s="0" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="O196" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Q196" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R196" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S196" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T196" s="0" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>300826</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>测绘股份</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>11954.96</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>21888.24</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>65299.22</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M197" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N197" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O197" s="0" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="P197" s="0" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="Q197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" s="0" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="S197" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T197" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>300981</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>中红医疗</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>32571.83</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>63041.97</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>68338.27</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M198" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N198" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O198" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P198" s="0" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="Q198" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="R198" s="0" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="S198" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T198" s="0" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>301111</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>粤万年青</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>14239.87</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>67000.82000000001</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>71002.67</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K199" s="0" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L199" s="0" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M199" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N199" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O199" s="0" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="P199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R199" s="0" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="S199" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T199" s="0" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>301130</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>西点药业</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>6237</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>14383.04</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>17060.11</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K200" s="0" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="L200" s="0" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="M200" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N200" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O200" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P200" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Q200" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="R200" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="S200" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T200" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>301133</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>金钟股份</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>7319.06</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>14555.54</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>30314.5</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N201" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="Q201" s="0" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -13410,7 +14294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -13523,754 +14407,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>300039</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>上海凯宝(涨幅:7.42)</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>377836.81</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>970593.12</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1591022.87</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>-2.72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>300062</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>中能电气(涨幅:2.73)</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>151897</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>348068.97</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>487934.62</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>300141</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>和顺电气(涨幅:3.0)</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>48750.31</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>91069.2</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>112820.31</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>300305</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>裕兴股份(涨幅:0.28)</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>25998</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>50375.61</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>57504.89</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>300398</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>飞凯材料(涨幅:3.27)</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>117736.04</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>219577.31</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>249755.1</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>300632</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>光莆股份(涨幅:1.43)</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>49551.66</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>69288.35000000001</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>76991.60000000001</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>300724</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>捷佳伟创(涨幅:6.05)</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>63126.73</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>124189.23</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>163852.98</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>300811</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>铂科新材(涨幅:3.16)</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>9554.58</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>24441.33</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>36960.25</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>300826</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>测绘股份(涨幅:4.58)</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>11954.96</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>21888.24</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>65299.22</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>300981</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>中红医疗(涨幅:3.45)</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>32571.83</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>63041.97</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>68338.27</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>301133</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>金钟股份(涨幅:4.18)</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>7319.06</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>14555.54</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>30314.5</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14283,7 +14419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
@@ -24134,6 +24270,550 @@
       </c>
       <c r="T143" s="0" t="n">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>奥特迅</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>80253.71000000001</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>109241.18</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>176443.94</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N144" s="0" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O144" s="0" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q144" s="0" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="R144" s="0" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="S144" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T144" s="0" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>002362</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>汉王科技</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>525912.0600000001</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>657215.8100000001</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>723046.38</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="N145" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O145" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="Q145" s="0" t="n">
+        <v>-6.09</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="S145" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>002519</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>银河电子</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>185717</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>397974.59</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>733648.62</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O146" s="0" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Q146" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="S146" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T146" s="0" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>002827</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>高争民爆</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>40384</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>76805.5</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>176988.52</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N147" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O147" s="0" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Q147" s="0" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="S147" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>600351</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>亚宝药业</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>79914.33</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>154809.06</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>189877.41</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N148" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O148" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q148" s="0" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T148" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>600362</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>95452.45</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>347873.62</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>469410.44</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N149" s="0" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="O149" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="Q149" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="S149" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T149" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>600422</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>昆药集团</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>78580.03</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>86052.42999999999</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>117927.4</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="N150" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O150" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="Q150" s="0" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="S150" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T150" s="0" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>600498</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>155610.19</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>248450.59</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>414040.72</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N151" s="0" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O151" s="0" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="P151" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Q151" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S151" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="T151" s="0" t="n">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>
@@ -24260,613 +24940,613 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>002227</t>
+          <t>000063</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>奥</t>
+          <t>中兴通讯(涨幅:2.61)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.96</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.21</v>
+        <v>2.61</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>80253.71000000001</v>
+        <v>255784.8</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>109241.18</v>
+        <v>557332.38</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>176443.94</v>
+        <v>1242595.56</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3.27</v>
+        <v>0.64</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>4.45</v>
+        <v>1.4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>7.19</v>
+        <v>3.12</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.01</v>
+        <v>0.93</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>7.11</v>
+        <v>6.8</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.42</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>-0.6</v>
+        <v>-0.52</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.41</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>002325</t>
+          <t>000999</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>洪涛股份(涨幅:0.46)</t>
+          <t>华润三九(涨幅:4.0)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>4.83</v>
+        <v>2.38</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.46</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>268737.62</v>
+        <v>54138.86</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1612822.12</v>
+        <v>127525.19</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1680256.19</v>
+        <v>173966.26</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1.88</v>
+        <v>0.55</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>11.26</v>
+        <v>1.3</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>11.73</v>
+        <v>1.77</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>10.14</v>
+        <v>6.37</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>5.07</v>
+        <v>6.65</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>-0.48</v>
+        <v>-0.61</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>-1.45</v>
+        <v>0.21</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>-1.38</v>
+        <v>-0.02</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>1.03</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002362</t>
+          <t>002429</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>汉王科技(涨幅:3.1)</t>
+          <t>兆驰股份(涨幅:2.97)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>525912.0600000001</v>
+        <v>323310.62</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>657215.8100000001</v>
+        <v>508761.88</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>723046.38</v>
+        <v>1100428.64</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>25.42</v>
+        <v>0.72</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>31.77</v>
+        <v>1.13</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>34.95</v>
+        <v>2.44</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>4.97</v>
+        <v>3.54</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>-1.14</v>
+        <v>-0.24</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>-6.09</v>
+        <v>-0.71</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>-3.41</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>002519</t>
+          <t>002873</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>银河电子(涨幅:4.82)</t>
+          <t>新天药业(涨幅:1.53)</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.57</v>
+        <v>1.75</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.67</v>
+        <v>3.63</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4.82</v>
+        <v>1.53</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>185717</v>
+        <v>77374.23</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>397974.59</v>
+        <v>167952.05</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>733648.6800000001</v>
+        <v>192179.93</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1.87</v>
+        <v>3.48</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4.01</v>
+        <v>7.56</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>7.39</v>
+        <v>8.65</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.76</v>
+        <v>3.16</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3.24</v>
+        <v>6.13</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="P5" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>-0.2</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.38</v>
-      </c>
       <c r="R5" s="0" t="n">
-        <v>-0.74</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-0.04</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>002827</t>
+          <t>002955</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>高争民爆(涨幅:3.75)</t>
+          <t>鸿合科技(涨幅:3.77)</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.95</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>40384</v>
+        <v>28764.03</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>76805.5</v>
+        <v>45863.12</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>176988.52</v>
+        <v>150076.52</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>2.78</v>
+        <v>2.47</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>6.41</v>
+        <v>8.08</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>5.39</v>
+        <v>9.08</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.33</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>-1.03</v>
+        <v>-0.37</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>-0.82</v>
+        <v>0.26</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>1.02</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>600351</t>
+          <t>600535</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>亚宝药业(涨幅:0.63)</t>
+          <t>天士力(涨幅:0.65)</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.98</v>
+        <v>1.77</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>79914.33</v>
+        <v>90057.86</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>154809.06</v>
+        <v>214190.06</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>189877.4</v>
+        <v>258740.56</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1.04</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>2.01</v>
+        <v>1.43</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.98</v>
+        <v>1.94</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2.75</v>
+        <v>4.98</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>2.84</v>
+        <v>3.98</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.16</v>
+        <v>-0.43</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>-0.32</v>
+        <v>0.08</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>0</v>
+        <v>-0.57</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>600362</t>
+          <t>600557</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>江西铜业(涨幅:2.72)</t>
+          <t>康缘药业(涨幅:6.33)</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>99228.41</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>148706.48</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>216642.83</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>95452.45</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>347873.62</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>469410.43</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1.68</v>
-      </c>
       <c r="L8" s="0" t="n">
-        <v>2.27</v>
+        <v>3.76</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.17</v>
+        <v>2.42</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>5.84</v>
+        <v>5.2</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>6</v>
+        <v>9.83</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.55</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>-0.26</v>
+        <v>-0.48</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>-0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>600422</t>
+          <t>600780</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>昆药集团(涨幅:1.83)</t>
+          <t>通宝能源(涨幅:4.6)</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.74</v>
+        <v>5.68</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.83</v>
+        <v>4.6</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>78580.03</v>
+        <v>119908.9</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>86052.42999999999</v>
+        <v>271325.72</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>117927.4</v>
+        <v>375808.02</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1.14</v>
+        <v>2.37</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1.56</v>
+        <v>3.28</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2.94</v>
+        <v>1.09</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>2.92</v>
+        <v>6.76</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3.2</v>
+        <v>6.78</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.68</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>-0.49</v>
+        <v>-0.68</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>-0.83</v>
+        <v>-1.28</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>1.59</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>600498</t>
+          <t>600976</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>烽火通信(涨幅:6.17)</t>
+          <t>健民集团(涨幅:3.02)</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.06</v>
+        <v>1.53</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3.21</v>
+        <v>2.27</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>6.17</v>
+        <v>3.02</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>155610.19</v>
+        <v>14924.65</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>248450.59</v>
+        <v>26820.21</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>414040.73</v>
+        <v>42940.61</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3.67</v>
+        <v>2.82</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>5.38</v>
+        <v>5.7</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>6.36</v>
+        <v>6.54</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>-0.2</v>
+        <v>-1.41</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>0.51</v>
+        <v>-0.85</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -25002,7 +25002,7 @@
         <v>-0.96</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
@@ -25070,7 +25070,7 @@
         <v>-0.96</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.23</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -25138,7 +25138,7 @@
         <v>-0.96</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5">
@@ -25206,7 +25206,7 @@
         <v>-0.96</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0.87</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="6">
@@ -25274,7 +25274,7 @@
         <v>-0.96</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-1.32</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="7">
@@ -25342,7 +25342,7 @@
         <v>-0.96</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -25410,7 +25410,7 @@
         <v>-0.96</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.23</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9">
@@ -25478,7 +25478,7 @@
         <v>-0.96</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10">
@@ -25546,7 +25546,7 @@
         <v>-0.96</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -14282,6 +14282,210 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>300158</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>振东制药</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>444595.12</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>822602.0600000001</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>1379492.12</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K202" s="0" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="L202" s="0" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="M202" s="0" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N202" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O202" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="Q202" s="0" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="R202" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="S202" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T202" s="0" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>301045</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>天禄科技</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>8823.33</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>13461.99</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>46290.16</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K203" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L203" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="M203" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="N203" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O203" s="0" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="P203" s="0" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="Q203" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R203" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S203" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T203" s="0" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>301339</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>通行宝</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>53823.47</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>88361.25999999999</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>100613.16</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="K204" s="0" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="L204" s="0" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="M204" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N204" s="0" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O204" s="0" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P204" s="0" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="Q204" s="0" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="R204" s="0" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="S204" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T204" s="0" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14294,7 +14498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -14407,6 +14611,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>300199</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>翰宇药业(涨幅:6.21)</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>427964.56</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>838800.5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1015226.18</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14419,7 +14691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:T163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
@@ -24816,6 +25088,822 @@
         <v>2.04</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中洲控股</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G152" t="n">
+        <v>44368.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>136101.55</v>
+      </c>
+      <c r="I152" t="n">
+        <v>240696.34</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O152" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="R152" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="S152" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G153" t="n">
+        <v>255784.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>557332.38</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1242595.5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O153" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="R153" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="S153" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T153" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>海马汽车</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G154" t="n">
+        <v>87392.31</v>
+      </c>
+      <c r="H154" t="n">
+        <v>935836.88</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1078423.62</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K154" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L154" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N154" t="n">
+        <v>10</v>
+      </c>
+      <c r="O154" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S154" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T154" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000999</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华润三九</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="n">
+        <v>54138.86</v>
+      </c>
+      <c r="H155" t="n">
+        <v>127525.19</v>
+      </c>
+      <c r="I155" t="n">
+        <v>173966.27</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N155" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R155" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S155" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002373</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>千方科技</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G156" t="n">
+        <v>119697.76</v>
+      </c>
+      <c r="H156" t="n">
+        <v>405537.69</v>
+      </c>
+      <c r="I156" t="n">
+        <v>469798.56</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="N156" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="O156" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="R156" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="S156" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002429</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>兆驰股份</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G157" t="n">
+        <v>323310.62</v>
+      </c>
+      <c r="H157" t="n">
+        <v>508761.88</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1100428.62</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O157" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="R157" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="S157" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002873</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>新天药业</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G158" t="n">
+        <v>77374.23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>167952.05</v>
+      </c>
+      <c r="I158" t="n">
+        <v>192179.92</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K158" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="L158" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N158" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="O158" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S158" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鸿合科技</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G159" t="n">
+        <v>28764.03</v>
+      </c>
+      <c r="H159" t="n">
+        <v>45863.12</v>
+      </c>
+      <c r="I159" t="n">
+        <v>150076.52</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L159" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O159" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="S159" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T159" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>600535</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天士力</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G160" t="n">
+        <v>90057.86</v>
+      </c>
+      <c r="H160" t="n">
+        <v>214190.06</v>
+      </c>
+      <c r="I160" t="n">
+        <v>258740.56</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O160" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R160" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="S160" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T160" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>600557</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>康缘药业</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G161" t="n">
+        <v>99228.41</v>
+      </c>
+      <c r="H161" t="n">
+        <v>148706.48</v>
+      </c>
+      <c r="I161" t="n">
+        <v>216642.83</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O161" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="S161" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>600780</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>通宝能源</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G162" t="n">
+        <v>119908.9</v>
+      </c>
+      <c r="H162" t="n">
+        <v>271325.72</v>
+      </c>
+      <c r="I162" t="n">
+        <v>375808.03</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="O162" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="R162" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="S162" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T162" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>600976</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>健民集团</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G163" t="n">
+        <v>14924.65</v>
+      </c>
+      <c r="H163" t="n">
+        <v>26820.21</v>
+      </c>
+      <c r="I163" t="n">
+        <v>42940.61</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="N163" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O163" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R163" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="S163" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24827,7 +25915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -24940,613 +26028,205 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000063</t>
+          <t>000529</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>中兴通讯(涨幅:2.61)</t>
+          <t>广弘控股(涨幅:4.85)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.9</v>
+        <v>3.84</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.61</v>
+        <v>4.85</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>255784.8</v>
+        <v>160549</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>557332.38</v>
+        <v>572034.1899999999</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1242595.56</v>
+        <v>589738.91</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.64</v>
+        <v>2.82</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.4</v>
+        <v>10.04</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3.12</v>
+        <v>10.35</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.93</v>
+        <v>1.69</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3.89</v>
+        <v>7.67</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>6.8</v>
+        <v>7.04</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>-0.46</v>
+        <v>-0.13</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>-0.42</v>
+        <v>-0.24</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1.25</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000999</t>
+          <t>002261</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>华润三九(涨幅:4.0)</t>
+          <t>拓维信息(涨幅:5.75)</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.35</v>
+        <v>3.77</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.38</v>
+        <v>5.86</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4</v>
+        <v>5.86</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>54138.86</v>
+        <v>1792629.12</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>127525.19</v>
+        <v>2750396.75</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>173966.26</v>
+        <v>3582001.5</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.55</v>
+        <v>16.06</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.3</v>
+        <v>24.65</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1.77</v>
+        <v>32.1</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.64</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>6.37</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>6.65</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>-0.61</v>
+        <v>-0.12</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.21</v>
+        <v>-1.05</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>-0.02</v>
+        <v>5.09</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.1</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002429</t>
+          <t>600833</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>兆驰股份(涨幅:2.97)</t>
+          <t>第一医药(涨幅:2.13)</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.92</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.07</v>
+        <v>5.05</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.97</v>
+        <v>2.13</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>323310.62</v>
+        <v>43976.73</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>508761.88</v>
+        <v>185263.09</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1100428.64</v>
+        <v>215959.05</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.72</v>
+        <v>1.97</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2.44</v>
+        <v>9.68</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3.54</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>8.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>-0.71</v>
+        <v>1.99</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-3.86</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>002873</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>新天药业(涨幅:1.53)</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>77374.23</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>167952.05</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>192179.93</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>002955</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>鸿合科技(涨幅:3.77)</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>28764.03</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>45863.12</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>150076.52</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>-1.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>600535</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>天士力(涨幅:0.65)</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>90057.86</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>214190.06</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>258740.56</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>600557</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>康缘药业(涨幅:6.33)</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>99228.41</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>148706.48</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>216642.83</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>600780</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>通宝能源(涨幅:4.6)</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>119908.9</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>271325.72</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>375808.02</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>600976</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>健民集团(涨幅:3.02)</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>14924.65</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>26820.21</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>42940.61</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>1.28</v>
+        <v>3.46</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang.xlsx
+++ b/MachineLearning/data/stock_3yang.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T204"/>
+  <dimension ref="A1:T208"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -14486,6 +14486,278 @@
         <v>0.84</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>300147</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>香雪制药</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>205903.7</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>595527.75</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>827923.8100000001</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K205" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N205" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O205" s="0" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="P205" s="0" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="Q205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="0" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="S205" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T205" s="0" t="n">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>300158</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>振东制药</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>822602.0600000001</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>1379492.12</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>1586526.25</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="K206" s="0" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="N206" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="O206" s="0" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="P206" s="0" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="Q206" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="R206" s="0" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="S206" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T206" s="0" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>300199</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>翰宇药业</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>427964.56</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>838800.5</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>1057460.88</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="K207" s="0" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N207" s="0" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="O207" s="0" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="P207" s="0" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="Q207" s="0" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="R207" s="0" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="S207" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T207" s="0" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>赛升药业</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>116160.28</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>217750.69</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>264349.81</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K208" s="0" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N208" s="0" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O208" s="0" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="P208" s="0" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="Q208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" s="0" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="S208" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T208" s="0" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14498,7 +14770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -14611,74 +14883,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>300199</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>翰宇药业(涨幅:6.21)</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>427964.56</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>838800.5</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1015226.18</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>-3.44</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14691,7 +14895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T163"/>
+  <dimension ref="A1:T169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
@@ -25089,819 +25293,1227 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="0" t="inlineStr">
         <is>
           <t>000042</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="0" t="inlineStr">
         <is>
           <t>中洲控股</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" s="0" t="n">
         <v>3.37</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152" s="0" t="n">
         <v>44368.5</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152" s="0" t="n">
         <v>136101.55</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152" s="0" t="n">
         <v>240696.34</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="K152" t="n">
+      <c r="K152" s="0" t="n">
         <v>2.05</v>
       </c>
-      <c r="L152" t="n">
+      <c r="L152" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="M152" t="n">
+      <c r="M152" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="N152" t="n">
+      <c r="N152" s="0" t="n">
         <v>5.11</v>
       </c>
-      <c r="O152" t="n">
+      <c r="O152" s="0" t="n">
         <v>7.56</v>
       </c>
-      <c r="P152" t="n">
+      <c r="P152" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q152" s="0" t="n">
         <v>-0.71</v>
       </c>
-      <c r="R152" t="n">
+      <c r="R152" s="0" t="n">
         <v>-0.35</v>
       </c>
-      <c r="S152" t="n">
+      <c r="S152" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T152" t="n">
+      <c r="T152" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="0" t="inlineStr">
         <is>
           <t>000063</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="0" t="inlineStr">
         <is>
           <t>中兴通讯</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153" s="0" t="n">
         <v>255784.8</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153" s="0" t="n">
         <v>557332.38</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153" s="0" t="n">
         <v>1242595.5</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="K153" t="n">
+      <c r="K153" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="L153" t="n">
+      <c r="L153" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="M153" t="n">
+      <c r="M153" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="N153" t="n">
+      <c r="N153" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="O153" t="n">
+      <c r="O153" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="P153" t="n">
+      <c r="P153" s="0" t="n">
         <v>-0.46</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" s="0" t="n">
         <v>-0.42</v>
       </c>
-      <c r="R153" t="n">
+      <c r="R153" s="0" t="n">
         <v>-0.52</v>
       </c>
-      <c r="S153" t="n">
+      <c r="S153" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T153" t="n">
+      <c r="T153" s="0" t="n">
         <v>-0.2</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="0" t="inlineStr">
         <is>
           <t>000572</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="0" t="inlineStr">
         <is>
           <t>海马汽车</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="0" t="n">
         <v>5.58</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" s="0" t="n">
         <v>3.64</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154" s="0" t="n">
         <v>87392.31</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154" s="0" t="n">
         <v>935836.88</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154" s="0" t="n">
         <v>1078423.62</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="K154" t="n">
+      <c r="K154" s="0" t="n">
         <v>5.7</v>
       </c>
-      <c r="L154" t="n">
+      <c r="L154" s="0" t="n">
         <v>6.57</v>
       </c>
-      <c r="M154" t="n">
+      <c r="M154" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="N154" t="n">
+      <c r="N154" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="O154" t="n">
+      <c r="O154" s="0" t="n">
         <v>6.92</v>
       </c>
-      <c r="P154" t="n">
+      <c r="P154" s="0" t="n">
         <v>-0.58</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="Q154" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="n">
+      <c r="R154" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="S154" t="n">
+      <c r="S154" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T154" t="n">
+      <c r="T154" s="0" t="n">
         <v>-0.18</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="0" t="inlineStr">
         <is>
           <t>000999</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="0" t="inlineStr">
         <is>
           <t>华润三九</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="0" t="n">
         <v>1.35</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155" s="0" t="n">
         <v>54138.86</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155" s="0" t="n">
         <v>127525.19</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155" s="0" t="n">
         <v>173966.27</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="K155" t="n">
+      <c r="K155" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="L155" t="n">
+      <c r="L155" s="0" t="n">
         <v>1.78</v>
       </c>
-      <c r="M155" t="n">
+      <c r="M155" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="N155" t="n">
+      <c r="N155" s="0" t="n">
         <v>6.37</v>
       </c>
-      <c r="O155" t="n">
+      <c r="O155" s="0" t="n">
         <v>6.65</v>
       </c>
-      <c r="P155" t="n">
+      <c r="P155" s="0" t="n">
         <v>-0.61</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q155" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="R155" t="n">
+      <c r="R155" s="0" t="n">
         <v>-0.02</v>
       </c>
-      <c r="S155" t="n">
+      <c r="S155" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T155" t="n">
+      <c r="T155" s="0" t="n">
         <v>2.61</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="0" t="inlineStr">
         <is>
           <t>002373</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="0" t="inlineStr">
         <is>
           <t>千方科技</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="0" t="n">
         <v>1.41</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" s="0" t="n">
         <v>6.68</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156" s="0" t="n">
         <v>2.17</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156" s="0" t="n">
         <v>119697.76</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156" s="0" t="n">
         <v>405537.69</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156" s="0" t="n">
         <v>469798.56</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="K156" t="n">
+      <c r="K156" s="0" t="n">
         <v>2.95</v>
       </c>
-      <c r="L156" t="n">
+      <c r="L156" s="0" t="n">
         <v>3.42</v>
       </c>
-      <c r="M156" t="n">
+      <c r="M156" s="0" t="n">
         <v>1.79</v>
       </c>
-      <c r="N156" t="n">
+      <c r="N156" s="0" t="n">
         <v>7.42</v>
       </c>
-      <c r="O156" t="n">
+      <c r="O156" s="0" t="n">
         <v>6.35</v>
       </c>
-      <c r="P156" t="n">
+      <c r="P156" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" s="0" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="R156" t="n">
+      <c r="R156" s="0" t="n">
         <v>-0.7</v>
       </c>
-      <c r="S156" t="n">
+      <c r="S156" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T156" t="n">
+      <c r="T156" s="0" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="0" t="inlineStr">
         <is>
           <t>002429</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="0" t="inlineStr">
         <is>
           <t>兆驰股份</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="0" t="n">
         <v>1.92</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" s="0" t="n">
         <v>3.07</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157" s="0" t="n">
         <v>2.98</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157" s="0" t="n">
         <v>323310.62</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157" s="0" t="n">
         <v>508761.88</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157" s="0" t="n">
         <v>1100428.62</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="K157" t="n">
+      <c r="K157" s="0" t="n">
         <v>1.13</v>
       </c>
-      <c r="L157" t="n">
+      <c r="L157" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="M157" t="n">
+      <c r="M157" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="N157" t="n">
+      <c r="N157" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="O157" t="n">
+      <c r="O157" s="0" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="P157" t="n">
+      <c r="P157" s="0" t="n">
         <v>-0.24</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="Q157" s="0" t="n">
         <v>-0.71</v>
       </c>
-      <c r="R157" t="n">
+      <c r="R157" s="0" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="S157" t="n">
+      <c r="S157" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T157" t="n">
+      <c r="T157" s="0" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="0" t="inlineStr">
         <is>
           <t>002873</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="0" t="inlineStr">
         <is>
           <t>新天药业</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158" s="0" t="n">
         <v>1.53</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158" s="0" t="n">
         <v>77374.23</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158" s="0" t="n">
         <v>167952.05</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158" s="0" t="n">
         <v>192179.92</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158" s="0" t="n">
         <v>3.48</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K158" s="0" t="n">
         <v>7.56</v>
       </c>
-      <c r="L158" t="n">
+      <c r="L158" s="0" t="n">
         <v>8.65</v>
       </c>
-      <c r="M158" t="n">
+      <c r="M158" s="0" t="n">
         <v>3.16</v>
       </c>
-      <c r="N158" t="n">
+      <c r="N158" s="0" t="n">
         <v>6.13</v>
       </c>
-      <c r="O158" t="n">
+      <c r="O158" s="0" t="n">
         <v>6.94</v>
       </c>
-      <c r="P158" t="n">
+      <c r="P158" s="0" t="n">
         <v>-0.53</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" s="0" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R158" t="n">
+      <c r="R158" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="S158" t="n">
+      <c r="S158" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T158" t="n">
+      <c r="T158" s="0" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="0" t="inlineStr">
         <is>
           <t>002955</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="0" t="inlineStr">
         <is>
           <t>鸿合科技</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159" s="0" t="n">
         <v>28764.03</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159" s="0" t="n">
         <v>45863.12</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159" s="0" t="n">
         <v>150076.52</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159" s="0" t="n">
         <v>1.55</v>
       </c>
-      <c r="K159" t="n">
+      <c r="K159" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="L159" t="n">
+      <c r="L159" s="0" t="n">
         <v>8.08</v>
       </c>
-      <c r="M159" t="n">
+      <c r="M159" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="N159" t="n">
+      <c r="N159" s="0" t="n">
         <v>2.89</v>
       </c>
-      <c r="O159" t="n">
+      <c r="O159" s="0" t="n">
         <v>9.08</v>
       </c>
-      <c r="P159" t="n">
+      <c r="P159" s="0" t="n">
         <v>-0.33</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="Q159" s="0" t="n">
         <v>-0.37</v>
       </c>
-      <c r="R159" t="n">
+      <c r="R159" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="S159" t="n">
+      <c r="S159" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T159" t="n">
+      <c r="T159" s="0" t="n">
         <v>4.76</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="0" t="inlineStr">
         <is>
           <t>600535</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="0" t="inlineStr">
         <is>
           <t>天士力</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="0" t="n">
         <v>1.77</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160" s="0" t="n">
         <v>90057.86</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160" s="0" t="n">
         <v>214190.06</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160" s="0" t="n">
         <v>258740.56</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="K160" t="n">
+      <c r="K160" s="0" t="n">
         <v>1.43</v>
       </c>
-      <c r="L160" t="n">
+      <c r="L160" s="0" t="n">
         <v>1.73</v>
       </c>
-      <c r="M160" t="n">
+      <c r="M160" s="0" t="n">
         <v>1.94</v>
       </c>
-      <c r="N160" t="n">
+      <c r="N160" s="0" t="n">
         <v>4.98</v>
       </c>
-      <c r="O160" t="n">
+      <c r="O160" s="0" t="n">
         <v>3.98</v>
       </c>
-      <c r="P160" t="n">
+      <c r="P160" s="0" t="n">
         <v>-0.43</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="Q160" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="R160" t="n">
+      <c r="R160" s="0" t="n">
         <v>-0.57</v>
       </c>
-      <c r="S160" t="n">
+      <c r="S160" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T160" t="n">
+      <c r="T160" s="0" t="n">
         <v>5.41</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="A161" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="0" t="inlineStr">
         <is>
           <t>600557</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="0" t="inlineStr">
         <is>
           <t>康缘药业</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161" s="0" t="n">
         <v>6.33</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161" s="0" t="n">
         <v>99228.41</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161" s="0" t="n">
         <v>148706.48</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161" s="0" t="n">
         <v>216642.83</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161" s="0" t="n">
         <v>1.72</v>
       </c>
-      <c r="K161" t="n">
+      <c r="K161" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="L161" t="n">
+      <c r="L161" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="M161" t="n">
+      <c r="M161" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="N161" t="n">
+      <c r="N161" s="0" t="n">
         <v>5.2</v>
       </c>
-      <c r="O161" t="n">
+      <c r="O161" s="0" t="n">
         <v>9.83</v>
       </c>
-      <c r="P161" t="n">
+      <c r="P161" s="0" t="n">
         <v>-0.55</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="Q161" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="n">
+      <c r="R161" s="0" t="n">
         <v>-0.48</v>
       </c>
-      <c r="S161" t="n">
+      <c r="S161" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T161" t="n">
+      <c r="T161" s="0" t="n">
         <v>2.96</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="0" t="inlineStr">
         <is>
           <t>600780</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="0" t="inlineStr">
         <is>
           <t>通宝能源</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" s="0" t="n">
         <v>5.68</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162" s="0" t="n">
         <v>119908.9</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162" s="0" t="n">
         <v>271325.72</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162" s="0" t="n">
         <v>375808.03</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="K162" t="n">
+      <c r="K162" s="0" t="n">
         <v>2.37</v>
       </c>
-      <c r="L162" t="n">
+      <c r="L162" s="0" t="n">
         <v>3.28</v>
       </c>
-      <c r="M162" t="n">
+      <c r="M162" s="0" t="n">
         <v>1.09</v>
       </c>
-      <c r="N162" t="n">
+      <c r="N162" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="O162" t="n">
+      <c r="O162" s="0" t="n">
         <v>6.78</v>
       </c>
-      <c r="P162" t="n">
+      <c r="P162" s="0" t="n">
         <v>-0.68</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="Q162" s="0" t="n">
         <v>-0.68</v>
       </c>
-      <c r="R162" t="n">
+      <c r="R162" s="0" t="n">
         <v>-1.28</v>
       </c>
-      <c r="S162" t="n">
+      <c r="S162" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T162" t="n">
+      <c r="T162" s="0" t="n">
         <v>3.18</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="0" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="0" t="inlineStr">
         <is>
           <t>600976</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="0" t="inlineStr">
         <is>
           <t>健民集团</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="0" t="n">
         <v>1.53</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" s="0" t="n">
         <v>2.27</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163" s="0" t="n">
         <v>3.02</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163" s="0" t="n">
         <v>14924.65</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163" s="0" t="n">
         <v>26820.21</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163" s="0" t="n">
         <v>42940.61</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="K163" t="n">
+      <c r="K163" s="0" t="n">
         <v>1.76</v>
       </c>
-      <c r="L163" t="n">
+      <c r="L163" s="0" t="n">
         <v>2.82</v>
       </c>
-      <c r="M163" t="n">
+      <c r="M163" s="0" t="n">
         <v>2.28</v>
       </c>
-      <c r="N163" t="n">
+      <c r="N163" s="0" t="n">
         <v>5.7</v>
       </c>
-      <c r="O163" t="n">
+      <c r="O163" s="0" t="n">
         <v>6.54</v>
       </c>
-      <c r="P163" t="n">
+      <c r="P163" s="0" t="n">
         <v>-1.41</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q163" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="R163" t="n">
+      <c r="R163" s="0" t="n">
         <v>-0.85</v>
       </c>
-      <c r="S163" t="n">
+      <c r="S163" s="0" t="n">
         <v>-0.96</v>
       </c>
-      <c r="T163" t="n">
+      <c r="T163" s="0" t="n">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>广弘控股</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>160549</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>572034.1899999999</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>632556</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="L164" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="M164" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N164" s="0" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="O164" s="0" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="P164" s="0" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="Q164" s="0" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="R164" s="0" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="S164" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T164" s="0" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>002406</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>远东传动</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>400284.81</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>945594.75</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>987648.62</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="L165" s="0" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="M165" s="0" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="N165" s="0" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="O165" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="P165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="0" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="R165" s="0" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="S165" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T165" s="0" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>美吉姆</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>394651.97</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>1003465.44</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>1045572.06</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K166" s="0" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="L166" s="0" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="M166" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N166" s="0" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O166" s="0" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="P166" s="0" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="Q166" s="0" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="R166" s="0" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="S166" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T166" s="0" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>002750</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>龙津药业</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>220811.72</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>303053.03</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>463194.09</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="M167" s="0" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="N167" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O167" s="0" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="P167" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="Q167" s="0" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="R167" s="0" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="S167" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T167" s="0" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>002762</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>金发拉比</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>440674.56</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>687900.9399999999</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>712642.75</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="K168" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="M168" s="0" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="N168" s="0" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O168" s="0" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="P168" s="0" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="Q168" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="R168" s="0" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="S168" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T168" s="0" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>600833</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>第一医药</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>43976.73</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>185263.09</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>226224.45</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K169" s="0" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="M169" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N169" s="0" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="O169" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P169" s="0" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="Q169" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R169" s="0" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="S169" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T169" s="0" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -25915,7 +26527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -26028,205 +26640,69 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000529</t>
+          <t>000560</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>广弘控股(涨幅:4.85)</t>
+          <t>我爱我家(涨幅:5.07)</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.72</v>
+        <v>1.27</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.84</v>
+        <v>5.02</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4.85</v>
+        <v>5.07</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>160549</v>
+        <v>1282121.75</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>572034.1899999999</v>
+        <v>1292609.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>589738.91</v>
+        <v>1480828.22</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2.82</v>
+        <v>5.7</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>10.04</v>
+        <v>5.75</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>10.35</v>
+        <v>6.59</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1.69</v>
+        <v>5.71</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>7.67</v>
+        <v>7.52</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>7.04</v>
+        <v>5.37</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>-0.13</v>
+        <v>-0.95</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>-0.24</v>
+        <v>-0.31</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.79</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>002261</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>拓维信息(涨幅:5.75)</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1792629.12</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2750396.75</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>3582001.5</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>600833</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>第一医药(涨幅:2.13)</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>43976.73</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>185263.09</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>215959.05</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>-3.86</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>3.46</v>
+        <v>6.13</v>
       </c>
     </row>
   </sheetData>
